--- a/PJ管理/【内部】DRASAP移行PJ_バグリスト.xlsx
+++ b/PJ管理/【内部】DRASAP移行PJ_バグリスト.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F91BBF5-AF8D-4C6C-A2CB-039758682D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B5910C-B382-49CD-8D04-EF35CAD84D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{70C79F8E-3BD0-4225-BFFD-8E2606A3A956}"/>
   </bookViews>
   <sheets>
     <sheet name="BugList" sheetId="1" r:id="rId1"/>
-    <sheet name="設定" sheetId="2" r:id="rId2"/>
+    <sheet name="設定" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -442,7 +442,49 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>検索結果一覧に表示されたのは、項目の物理名になってしまった。</t>
+    <t>オープン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調査中</t>
+    <rPh sb="0" eb="3">
+      <t>チョウサチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正中</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト中</t>
+    <rPh sb="3" eb="4">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再確認中</t>
+    <rPh sb="0" eb="3">
+      <t>サイカクニン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クローズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索結果一覧に表示されたのは、項目の物理名になってしまう。</t>
     <rPh sb="4" eb="6">
       <t>イチラン</t>
     </rPh>
@@ -474,7 +516,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>　⇒項目の物理名が結果一覧に表示されてしまった。</t>
+      <t>　⇒項目の物理名が結果一覧に表示されてしまう。</t>
     </r>
     <rPh sb="32" eb="34">
       <t>コウモク</t>
@@ -494,45 +536,54 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>オープン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>調査中</t>
-    <rPh sb="0" eb="3">
-      <t>チョウサチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>修正中</t>
+    <t>英語に切り替えて、再表示ボタンを押すと、検索結果項目をすべて「装置名称（和）」に変わってしまう</t>
     <rPh sb="0" eb="2">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テスト中</t>
+      <t>エイゴ</t>
+    </rPh>
     <rPh sb="3" eb="4">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>再確認中</t>
-    <rPh sb="0" eb="3">
-      <t>サイカクニン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クローズ</t>
+      <t>キ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ソウチ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>①検索・出力画面にて検索条件を入力し、「検索」ボタンを押下
+②英語に切り替える
+③再表示ボタンを押下する
+　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>⇒検索結果項目をすべて「装置名称（和）」に変わってしまう</t>
+    </r>
+    <rPh sb="41" eb="44">
+      <t>サイヒョウジ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>オウカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -674,15 +725,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1072,949 +1120,961 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="54" style="3" customWidth="1"/>
-    <col min="5" max="5" width="6" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="6" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31" style="3" customWidth="1"/>
-    <col min="12" max="12" width="31.375" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36.625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="54" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31" style="2" customWidth="1"/>
+    <col min="12" max="12" width="31.375" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:12" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="89.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="4">
+    <row r="2" spans="1:12" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="3">
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>45506</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A3" s="4">
+      <c r="H2" s="4"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" ht="89.25" x14ac:dyDescent="0.4">
+      <c r="A3" s="3">
         <f t="shared" ref="A3:A51" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="6">
+        <v>45506</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" ht="51" x14ac:dyDescent="0.4">
+      <c r="A4" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="6">
+        <v>45506</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A8" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A9" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A11" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A13" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A15" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A16" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A17" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A18" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A19" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A20" s="3">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A21" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A22" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A23" s="3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A24" s="3">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A25" s="3">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A26" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A27" s="3">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A28" s="3">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A29" s="3">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A30" s="3">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A31" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A32" s="3">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A33" s="3">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A34" s="3">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A35" s="3">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A36" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A37" s="3">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A38" s="3">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A39" s="3">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A40" s="3">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A41" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A42" s="3">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A43" s="3">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A44" s="3">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A45" s="3">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A46" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A47" s="3">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A48" s="3">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A49" s="3">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A50" s="3">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A51" s="3">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="7">
-        <v>45506</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" s="4">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="4">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="4">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" s="4">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="4">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14" s="4">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A15" s="4">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A16" s="4">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A17" s="4">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A18" s="4">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A19" s="4">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A20" s="4">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A21" s="4">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A22" s="4">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A23" s="4">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A24" s="4">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A25" s="4">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A26" s="4">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A27" s="4">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A28" s="4">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A29" s="4">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A30" s="4">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A31" s="4">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A32" s="4">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A33" s="4">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A34" s="4">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A35" s="4">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A36" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A37" s="4">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A38" s="4">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A39" s="4">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A40" s="4">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A41" s="4">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A42" s="4">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A43" s="4">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A44" s="4">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A45" s="4">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A46" s="4">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A47" s="4">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A48" s="4">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A49" s="4">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A50" s="4">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A51" s="4">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EB67C42C-062D-4AC9-A226-1C47A52D1A87}">
           <x14:formula1>
             <xm:f>設定!$C:$C</xm:f>
           </x14:formula1>
-          <xm:sqref>I1:I1048576</xm:sqref>
+          <xm:sqref>I1:I1048576 E1:E1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8E90B69C-8607-45A2-859A-265B64B88F74}">
           <x14:formula1>
@@ -2027,12 +2087,6 @@
             <xm:f>設定!$A:$A</xm:f>
           </x14:formula1>
           <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{75FDD761-1CC7-4834-9A3C-894392853B94}">
-          <x14:formula1>
-            <xm:f>設定!$C:$C</xm:f>
-          </x14:formula1>
-          <xm:sqref>E1:E1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2050,7 +2104,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="33.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -2061,7 +2115,7 @@
         <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -2072,7 +2126,7 @@
         <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -2083,7 +2137,7 @@
         <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -2094,7 +2148,7 @@
         <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -2105,7 +2159,7 @@
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -2116,7 +2170,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">

--- a/PJ管理/【内部】DRASAP移行PJ_バグリスト.xlsx
+++ b/PJ管理/【内部】DRASAP移行PJ_バグリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B5910C-B382-49CD-8D04-EF35CAD84D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C22B09-9EB8-4D95-A41E-6D81F6C8C07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{70C79F8E-3BD0-4225-BFFD-8E2606A3A956}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -585,6 +585,26 @@
       <t>オウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>searchResultBody.jspにリストデータを教示する時にキーが表示してしまった。</t>
+    <rPh sb="28" eb="30">
+      <t>キョウジ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fe304b01816c9bbf3d52b2092f443f7d0e96ed42</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クローズ</t>
   </si>
 </sst>
 </file>
@@ -658,7 +678,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -695,6 +715,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -725,7 +751,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -782,6 +808,21 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1120,7 +1161,7 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.4"/>
@@ -1132,7 +1173,7 @@
     <col min="5" max="5" width="6" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="46.875" style="7" customWidth="1"/>
     <col min="9" max="9" width="6" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31" style="2" customWidth="1"/>
@@ -1162,7 +1203,7 @@
       <c r="G1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="19" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="15" t="s">
@@ -1179,33 +1220,41 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A2" s="3">
+      <c r="A2" s="20">
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="23">
         <v>45506</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="G2" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="23">
+        <v>45506</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="21"/>
     </row>
     <row r="3" spans="1:12" ht="89.25" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
@@ -1230,7 +1279,7 @@
       <c r="G3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="5"/>
       <c r="I3" s="3"/>
       <c r="J3" s="6"/>
       <c r="K3" s="4"/>
@@ -1259,7 +1308,7 @@
       <c r="G4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="5"/>
       <c r="I4" s="3"/>
       <c r="J4" s="6"/>
       <c r="K4" s="4"/>
@@ -1276,7 +1325,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="6"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
+      <c r="H5" s="5"/>
       <c r="I5" s="3"/>
       <c r="J5" s="6"/>
       <c r="K5" s="4"/>
@@ -1293,7 +1342,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="6"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="4"/>
+      <c r="H6" s="5"/>
       <c r="I6" s="3"/>
       <c r="J6" s="6"/>
       <c r="K6" s="4"/>
@@ -1310,7 +1359,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="6"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
+      <c r="H7" s="5"/>
       <c r="I7" s="3"/>
       <c r="J7" s="6"/>
       <c r="K7" s="4"/>
@@ -1327,7 +1376,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="6"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
+      <c r="H8" s="5"/>
       <c r="I8" s="3"/>
       <c r="J8" s="6"/>
       <c r="K8" s="4"/>
@@ -1344,7 +1393,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="6"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
+      <c r="H9" s="5"/>
       <c r="I9" s="3"/>
       <c r="J9" s="6"/>
       <c r="K9" s="4"/>
@@ -1361,7 +1410,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="4"/>
+      <c r="H10" s="5"/>
       <c r="I10" s="3"/>
       <c r="J10" s="6"/>
       <c r="K10" s="4"/>
@@ -1378,7 +1427,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="6"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="4"/>
+      <c r="H11" s="5"/>
       <c r="I11" s="3"/>
       <c r="J11" s="6"/>
       <c r="K11" s="4"/>
@@ -1395,7 +1444,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="6"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="4"/>
+      <c r="H12" s="5"/>
       <c r="I12" s="3"/>
       <c r="J12" s="6"/>
       <c r="K12" s="4"/>
@@ -1412,7 +1461,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="6"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="4"/>
+      <c r="H13" s="5"/>
       <c r="I13" s="3"/>
       <c r="J13" s="6"/>
       <c r="K13" s="4"/>
@@ -1429,7 +1478,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
+      <c r="H14" s="5"/>
       <c r="I14" s="3"/>
       <c r="J14" s="6"/>
       <c r="K14" s="4"/>
@@ -1446,7 +1495,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="6"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="4"/>
+      <c r="H15" s="5"/>
       <c r="I15" s="3"/>
       <c r="J15" s="6"/>
       <c r="K15" s="4"/>
@@ -1463,7 +1512,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="6"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="4"/>
+      <c r="H16" s="5"/>
       <c r="I16" s="3"/>
       <c r="J16" s="6"/>
       <c r="K16" s="4"/>
@@ -1480,7 +1529,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="6"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="4"/>
+      <c r="H17" s="5"/>
       <c r="I17" s="3"/>
       <c r="J17" s="6"/>
       <c r="K17" s="4"/>
@@ -1497,7 +1546,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="6"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="4"/>
+      <c r="H18" s="5"/>
       <c r="I18" s="3"/>
       <c r="J18" s="6"/>
       <c r="K18" s="4"/>
@@ -1514,7 +1563,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="6"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="4"/>
+      <c r="H19" s="5"/>
       <c r="I19" s="3"/>
       <c r="J19" s="6"/>
       <c r="K19" s="4"/>
@@ -1531,7 +1580,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="6"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="4"/>
+      <c r="H20" s="5"/>
       <c r="I20" s="3"/>
       <c r="J20" s="6"/>
       <c r="K20" s="4"/>
@@ -1548,7 +1597,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="6"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="4"/>
+      <c r="H21" s="5"/>
       <c r="I21" s="3"/>
       <c r="J21" s="6"/>
       <c r="K21" s="4"/>
@@ -1565,7 +1614,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="6"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="4"/>
+      <c r="H22" s="5"/>
       <c r="I22" s="3"/>
       <c r="J22" s="6"/>
       <c r="K22" s="4"/>
@@ -1582,7 +1631,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="6"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="4"/>
+      <c r="H23" s="5"/>
       <c r="I23" s="3"/>
       <c r="J23" s="6"/>
       <c r="K23" s="4"/>
@@ -1599,7 +1648,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="6"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="4"/>
+      <c r="H24" s="5"/>
       <c r="I24" s="3"/>
       <c r="J24" s="6"/>
       <c r="K24" s="4"/>
@@ -1616,7 +1665,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="6"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="4"/>
+      <c r="H25" s="5"/>
       <c r="I25" s="3"/>
       <c r="J25" s="6"/>
       <c r="K25" s="4"/>
@@ -1633,7 +1682,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="6"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="4"/>
+      <c r="H26" s="5"/>
       <c r="I26" s="3"/>
       <c r="J26" s="6"/>
       <c r="K26" s="4"/>
@@ -1650,7 +1699,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="6"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="4"/>
+      <c r="H27" s="5"/>
       <c r="I27" s="3"/>
       <c r="J27" s="6"/>
       <c r="K27" s="4"/>
@@ -1667,7 +1716,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="6"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="4"/>
+      <c r="H28" s="5"/>
       <c r="I28" s="3"/>
       <c r="J28" s="6"/>
       <c r="K28" s="4"/>
@@ -1684,7 +1733,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="6"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="4"/>
+      <c r="H29" s="5"/>
       <c r="I29" s="3"/>
       <c r="J29" s="6"/>
       <c r="K29" s="4"/>
@@ -1701,7 +1750,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="6"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="4"/>
+      <c r="H30" s="5"/>
       <c r="I30" s="3"/>
       <c r="J30" s="6"/>
       <c r="K30" s="4"/>
@@ -1718,7 +1767,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="6"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="4"/>
+      <c r="H31" s="5"/>
       <c r="I31" s="3"/>
       <c r="J31" s="6"/>
       <c r="K31" s="4"/>
@@ -1735,7 +1784,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="6"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="4"/>
+      <c r="H32" s="5"/>
       <c r="I32" s="3"/>
       <c r="J32" s="6"/>
       <c r="K32" s="4"/>
@@ -1752,7 +1801,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="6"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="4"/>
+      <c r="H33" s="5"/>
       <c r="I33" s="3"/>
       <c r="J33" s="6"/>
       <c r="K33" s="4"/>
@@ -1769,7 +1818,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="6"/>
       <c r="G34" s="3"/>
-      <c r="H34" s="4"/>
+      <c r="H34" s="5"/>
       <c r="I34" s="3"/>
       <c r="J34" s="6"/>
       <c r="K34" s="4"/>
@@ -1786,7 +1835,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="6"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="4"/>
+      <c r="H35" s="5"/>
       <c r="I35" s="3"/>
       <c r="J35" s="6"/>
       <c r="K35" s="4"/>
@@ -1803,7 +1852,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="6"/>
       <c r="G36" s="3"/>
-      <c r="H36" s="4"/>
+      <c r="H36" s="5"/>
       <c r="I36" s="3"/>
       <c r="J36" s="6"/>
       <c r="K36" s="4"/>
@@ -1820,7 +1869,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="6"/>
       <c r="G37" s="3"/>
-      <c r="H37" s="4"/>
+      <c r="H37" s="5"/>
       <c r="I37" s="3"/>
       <c r="J37" s="6"/>
       <c r="K37" s="4"/>
@@ -1837,7 +1886,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="6"/>
       <c r="G38" s="3"/>
-      <c r="H38" s="4"/>
+      <c r="H38" s="5"/>
       <c r="I38" s="3"/>
       <c r="J38" s="6"/>
       <c r="K38" s="4"/>
@@ -1854,7 +1903,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="6"/>
       <c r="G39" s="3"/>
-      <c r="H39" s="4"/>
+      <c r="H39" s="5"/>
       <c r="I39" s="3"/>
       <c r="J39" s="6"/>
       <c r="K39" s="4"/>
@@ -1871,7 +1920,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="6"/>
       <c r="G40" s="3"/>
-      <c r="H40" s="4"/>
+      <c r="H40" s="5"/>
       <c r="I40" s="3"/>
       <c r="J40" s="6"/>
       <c r="K40" s="4"/>
@@ -1888,7 +1937,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="6"/>
       <c r="G41" s="3"/>
-      <c r="H41" s="4"/>
+      <c r="H41" s="5"/>
       <c r="I41" s="3"/>
       <c r="J41" s="6"/>
       <c r="K41" s="4"/>
@@ -1905,7 +1954,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="6"/>
       <c r="G42" s="3"/>
-      <c r="H42" s="4"/>
+      <c r="H42" s="5"/>
       <c r="I42" s="3"/>
       <c r="J42" s="6"/>
       <c r="K42" s="4"/>
@@ -1922,7 +1971,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="6"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="4"/>
+      <c r="H43" s="5"/>
       <c r="I43" s="3"/>
       <c r="J43" s="6"/>
       <c r="K43" s="4"/>
@@ -1939,7 +1988,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="6"/>
       <c r="G44" s="3"/>
-      <c r="H44" s="4"/>
+      <c r="H44" s="5"/>
       <c r="I44" s="3"/>
       <c r="J44" s="6"/>
       <c r="K44" s="4"/>
@@ -1956,7 +2005,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="6"/>
       <c r="G45" s="3"/>
-      <c r="H45" s="4"/>
+      <c r="H45" s="5"/>
       <c r="I45" s="3"/>
       <c r="J45" s="6"/>
       <c r="K45" s="4"/>
@@ -1973,7 +2022,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="6"/>
       <c r="G46" s="3"/>
-      <c r="H46" s="4"/>
+      <c r="H46" s="5"/>
       <c r="I46" s="3"/>
       <c r="J46" s="6"/>
       <c r="K46" s="4"/>
@@ -1990,7 +2039,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="6"/>
       <c r="G47" s="3"/>
-      <c r="H47" s="4"/>
+      <c r="H47" s="5"/>
       <c r="I47" s="3"/>
       <c r="J47" s="6"/>
       <c r="K47" s="4"/>
@@ -2007,7 +2056,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="6"/>
       <c r="G48" s="3"/>
-      <c r="H48" s="4"/>
+      <c r="H48" s="5"/>
       <c r="I48" s="3"/>
       <c r="J48" s="6"/>
       <c r="K48" s="4"/>
@@ -2024,7 +2073,7 @@
       <c r="E49" s="3"/>
       <c r="F49" s="6"/>
       <c r="G49" s="3"/>
-      <c r="H49" s="4"/>
+      <c r="H49" s="5"/>
       <c r="I49" s="3"/>
       <c r="J49" s="6"/>
       <c r="K49" s="4"/>
@@ -2041,7 +2090,7 @@
       <c r="E50" s="3"/>
       <c r="F50" s="6"/>
       <c r="G50" s="3"/>
-      <c r="H50" s="4"/>
+      <c r="H50" s="5"/>
       <c r="I50" s="3"/>
       <c r="J50" s="6"/>
       <c r="K50" s="4"/>
@@ -2058,7 +2107,7 @@
       <c r="E51" s="3"/>
       <c r="F51" s="6"/>
       <c r="G51" s="3"/>
-      <c r="H51" s="4"/>
+      <c r="H51" s="5"/>
       <c r="I51" s="3"/>
       <c r="J51" s="6"/>
       <c r="K51" s="4"/>

--- a/PJ管理/【内部】DRASAP移行PJ_バグリスト.xlsx
+++ b/PJ管理/【内部】DRASAP移行PJ_バグリスト.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C22B09-9EB8-4D95-A41E-6D81F6C8C07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21883FB-9695-4EAE-90BF-01395D3D276B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{70C79F8E-3BD0-4225-BFFD-8E2606A3A956}"/>
   </bookViews>
@@ -21,23 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -606,6 +595,167 @@
   <si>
     <t>クローズ</t>
   </si>
+  <si>
+    <t>アクセスレベル変更画面</t>
+  </si>
+  <si>
+    <t>アクセスレベル変更画面から検索画面へ戻って、検索条件がクリアしまう</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①画面で検索条件を入力して、検索開始ボタンを押下
+②検索したデータを選択して、アクセスレベル変更ボタンを押下
+③アクセスレベル・使用禁止区分の変更画面でCancelボタンを押下
+④画面の検索条件を全てクリアしまう</t>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>スベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>満</t>
+    <rPh sb="0" eb="1">
+      <t>マン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オープン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索条件エリアスクロールバーの表示不正</t>
+    <rPh sb="0" eb="4">
+      <t>ケンサクジョウケン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>フセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイドバー表示不正</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索画面へログインして、検索条件エリア下部スクロールバー表示されている。</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カブ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイドバー初期表示不正、表示のマックが重なる</t>
+    <rPh sb="5" eb="7">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -614,7 +764,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -676,6 +826,13 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -751,7 +908,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -823,6 +980,9 @@
     </xf>
     <xf numFmtId="176" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1161,7 +1321,7 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H6" activeCellId="1" sqref="G7 H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.4"/>
@@ -1314,17 +1474,29 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" ht="51" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="3"/>
+      <c r="B5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="6">
+        <v>45512</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="H5" s="5"/>
       <c r="I5" s="3"/>
       <c r="J5" s="6"/>
@@ -1336,12 +1508,24 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="3"/>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="6">
+        <v>45512</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="H6" s="5"/>
       <c r="I6" s="3"/>
       <c r="J6" s="6"/>
@@ -1353,12 +1537,24 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="3"/>
+      <c r="B7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="6">
+        <v>45512</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="3"/>
       <c r="J7" s="6"/>

--- a/PJ管理/【内部】DRASAP移行PJ_バグリスト.xlsx
+++ b/PJ管理/【内部】DRASAP移行PJ_バグリスト.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20388"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YFC-112\Documents\项目\drasap\DRASAP_Web\PJ管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21883FB-9695-4EAE-90BF-01395D3D276B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D94382E-F7B8-4199-9A6D-E5AE63A81E95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{70C79F8E-3BD0-4225-BFFD-8E2606A3A956}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{70C79F8E-3BD0-4225-BFFD-8E2606A3A956}"/>
   </bookViews>
   <sheets>
     <sheet name="BugList" sheetId="1" r:id="rId1"/>
-    <sheet name="設定" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="#7" sheetId="3" r:id="rId2"/>
+    <sheet name="設定" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -756,6 +757,84 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>パスワード変更画面</t>
+  </si>
+  <si>
+    <r>
+      <t>エラーメッセージ表示不正、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>本文中の余分な角括弧がある</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OLD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NEW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①123456（任意）ユーザをログインする
+②パスワード変更ページに遷移する
+③全部フィールド空白の場合、更新ボタンを押下
+④正しい現在のパスワードと、123456と00000を他の二つフィールドに入力する</t>
+    <rPh sb="8" eb="10">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -764,7 +843,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -833,6 +912,21 @@
       <name val="Microsoft YaHei"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -908,7 +1002,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -984,6 +1078,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -999,6 +1096,187 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>409935</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>93319</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80E97A8-12BB-48E3-833C-A3C4BCA66CE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="674914" y="457200"/>
+          <a:ext cx="13908221" cy="8780119"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>12301</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>29504</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE8BB0C1-2D80-47B4-87DF-5F9B6BE13E4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15523029" y="457200"/>
+          <a:ext cx="10136015" cy="6658904"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>428983</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>140937</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DE2EB42-26C9-4D68-A26C-8BD11E0A1100}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="674914" y="9829800"/>
+          <a:ext cx="13927269" cy="8827737"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>40880</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>58051</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74B47D35-E2E1-42A8-843C-92FE9D5C1115}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15523029" y="9829800"/>
+          <a:ext cx="10164594" cy="6458851"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1320,28 +1598,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA96CEB-BF09-4F94-B123-E8EF3FF8EDBB}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H6" activeCellId="1" sqref="G7 H6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="36.625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="4.69921875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.8984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36.59765625" style="7" customWidth="1"/>
     <col min="4" max="4" width="54" style="2" customWidth="1"/>
     <col min="5" max="5" width="6" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="46.8984375" style="7" customWidth="1"/>
     <col min="9" max="9" width="6" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31" style="2" customWidth="1"/>
-    <col min="12" max="12" width="31.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="31.3984375" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" s="18" customFormat="1" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1379,7 +1657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="25.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="26.4" x14ac:dyDescent="0.45">
       <c r="A2" s="20">
         <f>ROW()-1</f>
         <v>1</v>
@@ -1416,7 +1694,7 @@
       </c>
       <c r="L2" s="21"/>
     </row>
-    <row r="3" spans="1:12" ht="89.25" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" ht="92.4" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <f t="shared" ref="A3:A51" si="0">ROW()-1</f>
         <v>2</v>
@@ -1445,7 +1723,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="51" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" ht="52.8" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1474,7 +1752,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="51" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" ht="52.8" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1503,7 +1781,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1532,7 +1810,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1561,24 +1839,36 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" ht="52.8" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="3"/>
+      <c r="B8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="6">
+        <v>45512</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="H8" s="5"/>
       <c r="I8" s="3"/>
       <c r="J8" s="6"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1595,7 +1885,7 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1612,7 +1902,7 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1629,7 +1919,7 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1646,7 +1936,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1663,7 +1953,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1680,7 +1970,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1697,7 +1987,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1714,7 +2004,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1731,7 +2021,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1748,7 +2038,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1765,7 +2055,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1782,7 +2072,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1799,7 +2089,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1816,7 +2106,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1833,7 +2123,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1850,7 +2140,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1867,7 +2157,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1884,7 +2174,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1901,7 +2191,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1918,7 +2208,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1935,7 +2225,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1952,7 +2242,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1969,7 +2259,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1986,7 +2276,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2003,7 +2293,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2020,7 +2310,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2037,7 +2327,7 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" s="3">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2054,7 +2344,7 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2071,7 +2361,7 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2088,7 +2378,7 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2105,7 +2395,7 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2122,7 +2412,7 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2139,7 +2429,7 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2156,7 +2446,7 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2173,7 +2463,7 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44" s="3">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2190,7 +2480,7 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45" s="3">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2207,7 +2497,7 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2224,7 +2514,7 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47" s="3">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2241,7 +2531,7 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48" s="3">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2258,7 +2548,7 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49" s="3">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2275,7 +2565,7 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50" s="3">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2292,7 +2582,7 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51" s="3">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2340,6 +2630,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9ACC01-4D5D-4BFA-9BA6-333274796F85}">
+  <dimension ref="A2:X43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X44" sqref="X44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="X2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC6E52C-3EC5-4AFE-A82A-85482FAD5341}">
   <dimension ref="A1:E28"/>
   <sheetViews>
@@ -2347,12 +2670,12 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -2363,7 +2686,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -2374,7 +2697,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2385,7 +2708,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -2396,7 +2719,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -2407,7 +2730,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -2418,112 +2741,112 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>

--- a/PJ管理/【内部】DRASAP移行PJ_バグリスト.xlsx
+++ b/PJ管理/【内部】DRASAP移行PJ_バグリスト.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YFC-112\Documents\项目\drasap\DRASAP_Web\PJ管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D94382E-F7B8-4199-9A6D-E5AE63A81E95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF921D0-9A5C-42FC-8893-454CB05D04A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{70C79F8E-3BD0-4225-BFFD-8E2606A3A956}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{70C79F8E-3BD0-4225-BFFD-8E2606A3A956}"/>
   </bookViews>
   <sheets>
     <sheet name="BugList" sheetId="1" r:id="rId1"/>
     <sheet name="#7" sheetId="3" r:id="rId2"/>
-    <sheet name="設定" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="#8" sheetId="4" r:id="rId3"/>
+    <sheet name="設定" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="81">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -832,6 +833,87 @@
     </rPh>
     <rPh sb="99" eb="101">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①123456（任意）ユーザをログインする
+②パスワード変更ページに遷移する
+③正しく入力する
+④現在のパスワード：drasap4
+⑤新しいパスワード：drasap2
+⑥新しいパスワード（再入力）：drasap2
+⑦更新ボタンを押下</t>
+    <rPh sb="8" eb="10">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="94" eb="97">
+      <t>サイニュウリョク</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更成功表示不正
+成功に変更すると、ログイン無効ページを表示する。それで再ログインボタンを押すと、パスワード変更ページが空白になって、ホームページのウインドウに戻る</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>モド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1279,6 +1361,275 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>65315</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>436706</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>98748</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0572279-BFB9-4963-AD2F-3E3094E39A68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15588344" y="478972"/>
+          <a:ext cx="9145276" cy="5563376"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>465300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BF45BCD-08D0-4795-9C5D-BE7885EBE02F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="674914" y="457200"/>
+          <a:ext cx="2490043" cy="1658015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>283436</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>172101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12DD08B5-D0C4-4705-9B78-1C1054C47F03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="674914" y="2286000"/>
+          <a:ext cx="3658008" cy="1772301"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>171384</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>83795</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE05131E-DE3C-478B-B315-E6FB2324A9DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="674914" y="4343400"/>
+          <a:ext cx="14344584" cy="8770595"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>141515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>78754</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>9359</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DDC2909-DFD7-4A82-A02F-2A228BB8E164}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15533915" y="13400315"/>
+          <a:ext cx="18290553" cy="8554644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>649109</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>200978</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C55558E8-1A6F-4AC3-B349-1C545D70D763}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15523029" y="6172200"/>
+          <a:ext cx="10097909" cy="6830378"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -1598,8 +1949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA96CEB-BF09-4F94-B123-E8EF3FF8EDBB}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
@@ -1868,17 +2219,29 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" ht="92.4" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="3"/>
+      <c r="B9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="6">
+        <v>45512</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="H9" s="5"/>
       <c r="I9" s="3"/>
       <c r="J9" s="6"/>
@@ -2633,8 +2996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9ACC01-4D5D-4BFA-9BA6-333274796F85}">
   <dimension ref="A2:X43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X44" sqref="X44"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2663,6 +3026,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C777E33A-33D3-4DC5-9259-0FD1CD0D02F2}">
+  <dimension ref="A2:X2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X28" sqref="X28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="X2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC6E52C-3EC5-4AFE-A82A-85482FAD5341}">
   <dimension ref="A1:E28"/>
   <sheetViews>

--- a/PJ管理/【内部】DRASAP移行PJ_バグリスト.xlsx
+++ b/PJ管理/【内部】DRASAP移行PJ_バグリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YFC-112\Documents\项目\drasap\DRASAP_Web\PJ管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF921D0-9A5C-42FC-8893-454CB05D04A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551B0DFD-CDA8-479B-A891-50D2ED0DF71A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{70C79F8E-3BD0-4225-BFFD-8E2606A3A956}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="BugList" sheetId="1" r:id="rId1"/>
     <sheet name="#7" sheetId="3" r:id="rId2"/>
     <sheet name="#8" sheetId="4" r:id="rId3"/>
-    <sheet name="設定" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="#9" sheetId="5" r:id="rId4"/>
+    <sheet name="設定" sheetId="2" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="84">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -914,6 +915,73 @@
     </rPh>
     <rPh sb="80" eb="81">
       <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図面登録依頼リスト画面</t>
+  </si>
+  <si>
+    <t>情報を更新して、完了情報登録ボタンを押下する後、意味不明のポップアップを表示した</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>カンリョウジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>イミフメイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①123456（任意）ユーザをログインする
+②図番登録依頼リスト画面に遷移する
+③完了情報登録ボタンを押下</t>
+    <rPh sb="8" eb="10">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ズバン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>オウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1630,6 +1698,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>503518</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>172623</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81AC38D8-F264-4281-A305-176403B3BB34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="228600"/>
+          <a:ext cx="17938078" cy="8402223"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -1949,8 +2066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA96CEB-BF09-4F94-B123-E8EF3FF8EDBB}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
@@ -2248,17 +2365,29 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" ht="39.6" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="3"/>
+      <c r="B10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="6">
+        <v>45512</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="H10" s="5"/>
       <c r="I10" s="3"/>
       <c r="J10" s="6"/>
@@ -3029,7 +3158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C777E33A-33D3-4DC5-9259-0FD1CD0D02F2}">
   <dimension ref="A2:X2"/>
   <sheetViews>
-    <sheetView topLeftCell="B52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
@@ -3054,6 +3183,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003E6970-1805-4FDC-AF9A-23C73B5B93EF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC6E52C-3EC5-4AFE-A82A-85482FAD5341}">
   <dimension ref="A1:E28"/>
   <sheetViews>

--- a/PJ管理/【内部】DRASAP移行PJ_バグリスト.xlsx
+++ b/PJ管理/【内部】DRASAP移行PJ_バグリスト.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20388"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YFC-112\Documents\项目\drasap\DRASAP_Web\PJ管理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551B0DFD-CDA8-479B-A891-50D2ED0DF71A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AE65AD-FC1E-485B-A877-EB54600443FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{70C79F8E-3BD0-4225-BFFD-8E2606A3A956}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="87">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -982,6 +982,33 @@
     </rPh>
     <rPh sb="51" eb="53">
       <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遷移先不正</t>
+    <rPh sb="0" eb="2">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴミソース削除しない</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>満</t>
+    <rPh sb="0" eb="1">
+      <t>マン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2066,28 +2093,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA96CEB-BF09-4F94-B123-E8EF3FF8EDBB}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.69921875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.8984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="36.59765625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36.625" style="7" customWidth="1"/>
     <col min="4" max="4" width="54" style="2" customWidth="1"/>
     <col min="5" max="5" width="6" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.8984375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="46.875" style="7" customWidth="1"/>
     <col min="9" max="9" width="6" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31" style="2" customWidth="1"/>
-    <col min="12" max="12" width="31.3984375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="31.375" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="18" customFormat="1" ht="16.2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2125,7 +2152,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A2" s="20">
         <f>ROW()-1</f>
         <v>1</v>
@@ -2162,7 +2189,7 @@
       </c>
       <c r="L2" s="21"/>
     </row>
-    <row r="3" spans="1:12" ht="92.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" ht="89.25" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <f t="shared" ref="A3:A51" si="0">ROW()-1</f>
         <v>2</v>
@@ -2191,7 +2218,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="52.8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" ht="51" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2220,7 +2247,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="52.8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" ht="51" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2249,7 +2276,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2278,7 +2305,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2307,7 +2334,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" ht="52.8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" ht="51" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2336,7 +2363,7 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" ht="92.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" ht="89.25" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2359,13 +2386,19 @@
       <c r="G9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="6"/>
+      <c r="H9" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="6">
+        <v>45513</v>
+      </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" ht="39.6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" ht="38.25" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2388,13 +2421,19 @@
       <c r="G10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="6"/>
+      <c r="H10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="6">
+        <v>45513</v>
+      </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2411,7 +2450,7 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2428,7 +2467,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2445,7 +2484,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2462,7 +2501,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2479,7 +2518,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2496,7 +2535,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2513,7 +2552,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2530,7 +2569,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2547,7 +2586,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2564,7 +2603,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2581,7 +2620,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2598,7 +2637,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2615,7 +2654,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2632,7 +2671,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2649,7 +2688,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2666,7 +2705,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2683,7 +2722,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2700,7 +2739,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2717,7 +2756,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2734,7 +2773,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2751,7 +2790,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2768,7 +2807,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2785,7 +2824,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2802,7 +2841,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2819,7 +2858,7 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2836,7 +2875,7 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2853,7 +2892,7 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2870,7 +2909,7 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2887,7 +2926,7 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2904,7 +2943,7 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2921,7 +2960,7 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2938,7 +2977,7 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2955,7 +2994,7 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2972,7 +3011,7 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2989,7 +3028,7 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3006,7 +3045,7 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3023,7 +3062,7 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3040,7 +3079,7 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3057,7 +3096,7 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3074,7 +3113,7 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -3094,6 +3133,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -3129,9 +3169,9 @@
       <selection activeCell="A2" sqref="A2:X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -3142,7 +3182,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -3158,13 +3198,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C777E33A-33D3-4DC5-9259-0FD1CD0D02F2}">
   <dimension ref="A2:X2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -3190,7 +3230,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3206,12 +3246,12 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -3222,7 +3262,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -3233,7 +3273,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -3244,7 +3284,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -3255,7 +3295,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -3266,7 +3306,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -3277,112 +3317,112 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>

--- a/PJ管理/【内部】DRASAP移行PJ_バグリスト.xlsx
+++ b/PJ管理/【内部】DRASAP移行PJ_バグリスト.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20388"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YFC-112\Documents\项目\drasap\DRASAP_Web\PJ管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AE65AD-FC1E-485B-A877-EB54600443FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97998866-E84B-421E-8D24-78F1EA894865}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{70C79F8E-3BD0-4225-BFFD-8E2606A3A956}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="88">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -1009,6 +1009,13 @@
     <t>満</t>
     <rPh sb="0" eb="1">
       <t>マン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高</t>
+    <rPh sb="0" eb="1">
+      <t>コウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1106,7 +1113,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1149,6 +1156,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1179,7 +1192,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1258,11 +1271,80 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2093,28 +2175,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA96CEB-BF09-4F94-B123-E8EF3FF8EDBB}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="36.625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="4.69921875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.8984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36.59765625" style="7" customWidth="1"/>
     <col min="4" max="4" width="54" style="2" customWidth="1"/>
     <col min="5" max="5" width="6" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="46.8984375" style="7" customWidth="1"/>
     <col min="9" max="9" width="6" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31" style="2" customWidth="1"/>
-    <col min="12" max="12" width="31.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="31.3984375" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" s="18" customFormat="1" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2152,7 +2234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="25.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="26.4" x14ac:dyDescent="0.45">
       <c r="A2" s="20">
         <f>ROW()-1</f>
         <v>1</v>
@@ -2189,7 +2271,7 @@
       </c>
       <c r="L2" s="21"/>
     </row>
-    <row r="3" spans="1:12" ht="89.25" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" ht="92.4" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <f t="shared" ref="A3:A51" si="0">ROW()-1</f>
         <v>2</v>
@@ -2218,7 +2300,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="51" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" ht="52.8" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2247,7 +2329,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="51" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" ht="52.8" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2276,7 +2358,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2305,7 +2387,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2334,36 +2416,36 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" ht="51" x14ac:dyDescent="0.4">
-      <c r="A8" s="3">
+    <row r="8" spans="1:12" s="31" customFormat="1" ht="52.8" x14ac:dyDescent="0.45">
+      <c r="A8" s="26">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="E8" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="30">
         <v>45512</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" ht="89.25" x14ac:dyDescent="0.4">
+      <c r="G8" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="29"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+    </row>
+    <row r="9" spans="1:12" ht="92.4" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2378,13 +2460,13 @@
         <v>79</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="F9" s="6">
         <v>45512</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>84</v>
@@ -2398,7 +2480,7 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" ht="38.25" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" ht="39.6" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2413,13 +2495,13 @@
         <v>83</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="F10" s="6">
         <v>45512</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>85</v>
@@ -2433,7 +2515,7 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2450,7 +2532,7 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2467,7 +2549,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2484,7 +2566,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2501,7 +2583,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2518,7 +2600,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2535,7 +2617,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2552,7 +2634,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2569,7 +2651,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2586,7 +2668,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2603,7 +2685,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2620,7 +2702,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2637,7 +2719,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2654,7 +2736,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2671,7 +2753,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2688,7 +2770,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2705,7 +2787,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2722,7 +2804,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2739,7 +2821,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2756,7 +2838,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2773,7 +2855,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2790,7 +2872,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2807,7 +2889,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2824,7 +2906,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2841,7 +2923,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2858,7 +2940,7 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" s="3">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2875,7 +2957,7 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2892,7 +2974,7 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2909,7 +2991,7 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2926,7 +3008,7 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2943,7 +3025,7 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2960,7 +3042,7 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2977,7 +3059,7 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2994,7 +3076,7 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44" s="3">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3011,7 +3093,7 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45" s="3">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3028,7 +3110,7 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3045,7 +3127,7 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47" s="3">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3062,7 +3144,7 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48" s="3">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3079,7 +3161,7 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49" s="3">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3096,7 +3178,7 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50" s="3">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3113,7 +3195,7 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51" s="3">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -3132,6 +3214,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A2:L1048576">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$G2="クローズ"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -3153,7 +3240,7 @@
           <x14:formula1>
             <xm:f>設定!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>B1:B1048576</xm:sqref>
+          <xm:sqref>B1:B1048576 E10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3169,9 +3256,9 @@
       <selection activeCell="A2" sqref="A2:X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -3182,7 +3269,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -3202,9 +3289,9 @@
       <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -3230,7 +3317,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3243,15 +3330,15 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -3262,7 +3349,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -3273,7 +3360,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -3284,7 +3371,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -3295,7 +3382,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -3306,7 +3393,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -3317,112 +3404,115 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>

--- a/PJ管理/【内部】DRASAP移行PJ_バグリスト.xlsx
+++ b/PJ管理/【内部】DRASAP移行PJ_バグリスト.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AE65AD-FC1E-485B-A877-EB54600443FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12624FD-4121-4A70-91E5-B4D7E81925E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{70C79F8E-3BD0-4225-BFFD-8E2606A3A956}"/>
   </bookViews>
@@ -24,12 +24,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="88">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -1009,6 +1020,13 @@
     <t>満</t>
     <rPh sb="0" eb="1">
       <t>マン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高</t>
+    <rPh sb="0" eb="1">
+      <t>コウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2093,8 +2111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA96CEB-BF09-4F94-B123-E8EF3FF8EDBB}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.4"/>
@@ -2349,7 +2367,7 @@
         <v>78</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="F8" s="6">
         <v>45512</v>
@@ -2378,7 +2396,7 @@
         <v>79</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="F9" s="6">
         <v>45512</v>
@@ -2413,7 +2431,7 @@
         <v>83</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="F10" s="6">
         <v>45512</v>
@@ -3243,7 +3261,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3311,7 +3329,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s">
         <v>55</v>
@@ -3320,6 +3338,9 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">

--- a/PJ管理/【内部】DRASAP移行PJ_バグリスト.xlsx
+++ b/PJ管理/【内部】DRASAP移行PJ_バグリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12624FD-4121-4A70-91E5-B4D7E81925E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117593D2-EB13-4E35-A896-1FB84B639215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{70C79F8E-3BD0-4225-BFFD-8E2606A3A956}"/>
   </bookViews>
@@ -1197,7 +1197,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1274,6 +1274,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2112,7 +2115,7 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.4"/>
@@ -2382,74 +2385,74 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" ht="89.25" x14ac:dyDescent="0.4">
-      <c r="A9" s="3">
+      <c r="A9" s="20">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="23">
         <v>45512</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="23">
         <v>45513</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
     </row>
     <row r="10" spans="1:12" ht="38.25" x14ac:dyDescent="0.4">
-      <c r="A10" s="3">
+      <c r="A10" s="20">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="23">
         <v>45512</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="23">
         <v>45513</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="3">

--- a/PJ管理/【内部】DRASAP移行PJ_バグリスト.xlsx
+++ b/PJ管理/【内部】DRASAP移行PJ_バグリスト.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20388"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YFC-112\Documents\项目\drasap\DRASAP_Web\PJ管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117593D2-EB13-4E35-A896-1FB84B639215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0AEFD7-6E9E-46A8-BCCF-C68F0B8D5B2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{70C79F8E-3BD0-4225-BFFD-8E2606A3A956}"/>
   </bookViews>
@@ -24,23 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="90">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -1027,6 +1016,51 @@
     <t>高</t>
     <rPh sb="0" eb="1">
       <t>コウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図面検索条件は再ログインの時リセットする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①123456（任意）ユーザをログインする
+②ホームページの検索条件にて：
+③図番：空白　昇順
+④アクセスレベル：10
+⑤作成日：20/01/01-
+⑥検索開始
+⑦ログアウトする、そして再ログイン
+⑧全部検索フィールドが「図番」になった</t>
+    <rPh sb="30" eb="32">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ズバン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ショウジュン</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>サクセイニチ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ズバン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2114,28 +2148,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA96CEB-BF09-4F94-B123-E8EF3FF8EDBB}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="36.625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="4.69921875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.8984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36.59765625" style="7" customWidth="1"/>
     <col min="4" max="4" width="54" style="2" customWidth="1"/>
     <col min="5" max="5" width="6" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="46.8984375" style="7" customWidth="1"/>
     <col min="9" max="9" width="6" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31" style="2" customWidth="1"/>
-    <col min="12" max="12" width="31.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="31.3984375" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" s="18" customFormat="1" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2173,7 +2207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="25.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="26.4" x14ac:dyDescent="0.45">
       <c r="A2" s="20">
         <f>ROW()-1</f>
         <v>1</v>
@@ -2210,7 +2244,7 @@
       </c>
       <c r="L2" s="21"/>
     </row>
-    <row r="3" spans="1:12" ht="89.25" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" ht="92.4" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <f t="shared" ref="A3:A51" si="0">ROW()-1</f>
         <v>2</v>
@@ -2239,7 +2273,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="51" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" ht="52.8" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2268,7 +2302,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="51" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" ht="52.8" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2297,7 +2331,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2326,7 +2360,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2355,7 +2389,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" ht="51" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" ht="52.8" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2384,7 +2418,7 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" ht="89.25" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" ht="92.4" x14ac:dyDescent="0.45">
       <c r="A9" s="20">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2405,7 +2439,7 @@
         <v>45512</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H9" s="22" t="s">
         <v>84</v>
@@ -2419,7 +2453,7 @@
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
     </row>
-    <row r="10" spans="1:12" ht="38.25" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" ht="39.6" x14ac:dyDescent="0.45">
       <c r="A10" s="20">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2440,7 +2474,7 @@
         <v>45512</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H10" s="22" t="s">
         <v>85</v>
@@ -2454,24 +2488,36 @@
       <c r="K10" s="21"/>
       <c r="L10" s="21"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" ht="105.6" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="3"/>
+      <c r="B11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="6">
+        <v>45513</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="H11" s="5"/>
       <c r="I11" s="3"/>
       <c r="J11" s="6"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2488,7 +2534,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2505,7 +2551,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2522,7 +2568,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2539,7 +2585,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2556,7 +2602,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2573,7 +2619,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2590,7 +2636,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2607,7 +2653,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2624,7 +2670,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2641,7 +2687,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2658,7 +2704,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2675,7 +2721,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2692,7 +2738,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2709,7 +2755,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2726,7 +2772,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2743,7 +2789,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2760,7 +2806,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2777,7 +2823,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2794,7 +2840,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2811,7 +2857,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2828,7 +2874,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2845,7 +2891,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2862,7 +2908,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2879,7 +2925,7 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" s="3">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2896,7 +2942,7 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2913,7 +2959,7 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2930,7 +2976,7 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2947,7 +2993,7 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2964,7 +3010,7 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2981,7 +3027,7 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2998,7 +3044,7 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3015,7 +3061,7 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44" s="3">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3032,7 +3078,7 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45" s="3">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3049,7 +3095,7 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3066,7 +3112,7 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47" s="3">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3083,7 +3129,7 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48" s="3">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3100,7 +3146,7 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49" s="3">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3117,7 +3163,7 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50" s="3">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3134,7 +3180,7 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51" s="3">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -3190,9 +3236,9 @@
       <selection activeCell="A2" sqref="A2:X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -3203,7 +3249,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -3223,9 +3269,9 @@
       <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -3251,7 +3297,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3267,12 +3313,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -3283,7 +3329,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -3294,7 +3340,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -3305,7 +3351,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -3316,7 +3362,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -3327,7 +3373,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -3338,7 +3384,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -3346,107 +3392,107 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>

--- a/PJ管理/【内部】DRASAP移行PJ_バグリスト.xlsx
+++ b/PJ管理/【内部】DRASAP移行PJ_バグリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YFC-112\Documents\项目\drasap\DRASAP_Web\PJ管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0AEFD7-6E9E-46A8-BCCF-C68F0B8D5B2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA54103-BDFA-49D3-A0B6-3B99F21F34D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{70C79F8E-3BD0-4225-BFFD-8E2606A3A956}"/>
   </bookViews>
@@ -17,7 +17,8 @@
     <sheet name="#7" sheetId="3" r:id="rId2"/>
     <sheet name="#8" sheetId="4" r:id="rId3"/>
     <sheet name="#9" sheetId="5" r:id="rId4"/>
-    <sheet name="設定" sheetId="2" state="hidden" r:id="rId5"/>
+    <sheet name="#11" sheetId="6" r:id="rId5"/>
+    <sheet name="設定" sheetId="2" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -1062,6 +1063,44 @@
     <rPh sb="111" eb="113">
       <t>ズバン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホームページの表示は悪い：
+①検索条件のボックスはスクロールできる
+②表示属性のオプションを見れない
+③右の指導ポップアウトはスクロールすると見れる、一度ポップする後スクロールできない。アローのサイズも間違い</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>ケンサクジョウケン</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>マチガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①123456（任意）ユーザをログインする</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1829,6 +1868,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>156854</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>201170</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB8B5592-6350-4019-B1EC-BD7E70453331}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="457200"/>
+          <a:ext cx="18261974" cy="8202170"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>335062</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>175190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB0169C0-CDE4-40DD-9A20-2C3E05E4F190}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="665018" y="9421091"/>
+          <a:ext cx="18290553" cy="8183117"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -2148,8 +2280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA96CEB-BF09-4F94-B123-E8EF3FF8EDBB}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
@@ -2517,17 +2649,29 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" ht="66" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="3"/>
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="6">
+        <v>45513</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="H12" s="5"/>
       <c r="I12" s="3"/>
       <c r="J12" s="6"/>
@@ -3306,6 +3450,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF9EDE30-A4C7-453F-BF20-E03CE1215D2F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC6E52C-3EC5-4AFE-A82A-85482FAD5341}">
   <dimension ref="A1:E28"/>
   <sheetViews>

--- a/PJ管理/【内部】DRASAP移行PJ_バグリスト.xlsx
+++ b/PJ管理/【内部】DRASAP移行PJ_バグリスト.xlsx
@@ -8,17 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YFC-112\Documents\项目\drasap\DRASAP_Web\PJ管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA54103-BDFA-49D3-A0B6-3B99F21F34D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7F9E57-C165-4357-B50A-A24052B321C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{70C79F8E-3BD0-4225-BFFD-8E2606A3A956}"/>
   </bookViews>
   <sheets>
     <sheet name="BugList" sheetId="1" r:id="rId1"/>
     <sheet name="#7" sheetId="3" r:id="rId2"/>
-    <sheet name="#8" sheetId="4" r:id="rId3"/>
-    <sheet name="#9" sheetId="5" r:id="rId4"/>
+    <sheet name="#8" sheetId="4" state="hidden" r:id="rId3"/>
+    <sheet name="#9" sheetId="5" state="hidden" r:id="rId4"/>
     <sheet name="#11" sheetId="6" r:id="rId5"/>
-    <sheet name="設定" sheetId="2" state="hidden" r:id="rId6"/>
+    <sheet name="#12" sheetId="7" r:id="rId6"/>
+    <sheet name="#13" sheetId="8" r:id="rId7"/>
+    <sheet name="#14" sheetId="9" r:id="rId8"/>
+    <sheet name="#15" sheetId="10" r:id="rId9"/>
+    <sheet name="＃16" sheetId="11" r:id="rId10"/>
+    <sheet name="#17" sheetId="12" r:id="rId11"/>
+    <sheet name="#18" sheetId="13" r:id="rId12"/>
+    <sheet name="#19" sheetId="14" r:id="rId13"/>
+    <sheet name="設定" sheetId="2" state="hidden" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="109">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -1101,6 +1109,272 @@
   </si>
   <si>
     <t>①123456（任意）ユーザをログインする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①123456（任意）ユーザをログインする
+②ホームページの検索条件にて：
+③図番：11-6426A101-3　昇順
+この図番の他の似合う属性を使うでも検索できない
+検索結果がない</t>
+    <rPh sb="61" eb="63">
+      <t>ズバン</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ニア</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">特別図番を検索できない：
+11-6426A101-3
+ET-20100117-0  </t>
+    <rPh sb="0" eb="2">
+      <t>トクベツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ズバン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索条件の昇順と降順の効果がない</t>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウジュン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①123456（任意）ユーザをログインする
+②ホームページの検索条件にて：
+③図番：空白
+④作成日：20/01/01-
+⑤検索開始
+①図番：空白　降順
+②作成日：20/01/01-
+③検索開始
+①図番：空白
+②作成日：20/01/01-　昇順
+③検索開始
+結果のソート順はずっと同じ（ディフォルトの図番昇順）</t>
+    <rPh sb="30" eb="32">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ズバン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="135" eb="136">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>オナショウジュン</t>
+    </rPh>
+    <rPh sb="150" eb="152">
+      <t>ズバン</t>
+    </rPh>
+    <rPh sb="152" eb="154">
+      <t>ショウジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索・出力画面_ﾌｧｲﾙﾀﾞｳﾝﾛｰﾄﾞ</t>
+  </si>
+  <si>
+    <t>図番リンククリックすると、サーバー内部エラー発生</t>
+    <rPh sb="0" eb="2">
+      <t>ズバン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力を使うと、エラー発生</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①123456（任意）ユーザをログインする
+②ホームページの検索条件にて：
+③図番：空白
+④作成日：20/01/01-
+⑤検索開始
+⑥00-02010000-0（任意）図番をクリックする</t>
+    <rPh sb="81" eb="83">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ズバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①123456（任意）ユーザをログインする
+②ホームページの検索条件にて：
+③図番：空白
+④作成日：20/01/01-
+⑤検索開始
+⑥00-02010000-0（任意）行をチェック
+⑦出力ボタンを押下
+⑧確認ポップアップにOKを押下</t>
+    <rPh sb="81" eb="83">
+      <t>ニンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「全属性を」ファイル出力の効果がない</t>
+    <rPh sb="10" eb="12">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①123456（任意）ユーザをログインする
+②ホームページの検索条件にて：
+③図番：空白
+④作成日：20/01/01-
+⑤検索開始
+⑥「全属性を」をチェック
+⑦ファイル出力ボタンを押下
+⑧出力したファイルは全属性がない、ただ設定した属性がある</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバー内部エラー発生</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①123456（任意）ユーザをログインする
+②ホームページの検索条件にて：
+③図番：空白
+④作成日：20/01/01-
+⑤検索開始
+⑥00-02010000-0（任意）行をチェック
+⑦PDF単独zip出力を押下</t>
+    <rPh sb="81" eb="83">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①123456（任意）ユーザをログインする
+②ホームページの検索条件にて：
+③図番：空白
+④作成日：20/01/01-
+⑤検索開始
+⑥00-02010000-0（任意）行をチェック
+⑦マルチPD出力Fを押下</t>
+    <rPh sb="81" eb="83">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図面削除確認画面</t>
+  </si>
+  <si>
+    <t>図番削除する時、エラー発生</t>
+    <rPh sb="0" eb="2">
+      <t>ズバン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①123456（任意）ユーザをログインする
+②ホームページの検索条件にて：
+③図番：空白
+④作成日：20/01/01-
+⑤検索開始
+⑥00-42550901-1（任意）行をチェック
+⑦図面削除ボタンを押下
+⑧図面削除ログインページでパスワード「drafumi」を入力
+⑨削除ボタンを押下</t>
+    <rPh sb="81" eb="83">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="92" eb="96">
+      <t>ズメンサクジョ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="104" eb="108">
+      <t>ズメンサクジョ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>オウカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1550,6 +1824,197 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>335062</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>213294</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CADF611-447C-4ED0-9E3B-D21994575F86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="228600"/>
+          <a:ext cx="18440182" cy="7985694"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>335062</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>213294</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{566BC766-BC13-4C9E-8D54-632AD81B7BC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="228600"/>
+          <a:ext cx="18440182" cy="7985694"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>97497</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>124959</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16EB76D7-557A-4299-80FE-3B19ECA0D8D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="457200"/>
+          <a:ext cx="16099497" cy="8125959"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>288303</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>182117</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3615FD9-A1BB-497A-820F-E5161E6EDA78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17335500" y="457200"/>
+          <a:ext cx="18290553" cy="8183117"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1961,6 +2426,691 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>557415</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>105906</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80CC744A-661B-4238-BFFF-282DB13A622F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="674914" y="457200"/>
+          <a:ext cx="16080444" cy="8106906"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>58340</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>134453</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AD324D1-317D-48D1-9365-7C5180FA57A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17547771" y="457200"/>
+          <a:ext cx="18281026" cy="7906853"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>538362</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>115433</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B0678FA-0F4D-49BB-A25A-4330F5881FA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="674914" y="9372600"/>
+          <a:ext cx="16061391" cy="8116433"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>67867</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>29728</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F37065B6-1E95-4EC8-AF73-2E3322C2F747}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17547771" y="9372600"/>
+          <a:ext cx="18290553" cy="8259328"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>116549</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>105906</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08FCA99F-785C-4B13-8B11-110BA7610D01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="457200"/>
+          <a:ext cx="16118549" cy="8106906"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>59391</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>124959</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C425DD91-1256-4A72-8580-EC16C911B934}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="8915400"/>
+          <a:ext cx="16061391" cy="8125959"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>68918</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>105906</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D7A2797-7277-4287-92CA-FF40BDAD3D47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="17373600"/>
+          <a:ext cx="16070918" cy="8106906"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>288303</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>172559</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97293B94-5F40-48AD-BFD7-6983862EB93B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17335500" y="457200"/>
+          <a:ext cx="18290553" cy="7944959"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>288303</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>201170</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00D5AC72-581B-4FB3-9BD8-A5E05FA7D32C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17335500" y="8915400"/>
+          <a:ext cx="18290553" cy="8202170"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>288303</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>172591</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF8ED930-4CD3-4DDB-9741-32340352E62A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17335500" y="17373600"/>
+          <a:ext cx="18290553" cy="8173591"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>335062</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>213294</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A96D711A-2E92-441C-8F26-F50DA6143CEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="665018" y="235527"/>
+          <a:ext cx="18290553" cy="8221222"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>158112</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>98979</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CAA9DB1-ECD5-4216-8BF2-0E69939C59FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="665018" y="471055"/>
+          <a:ext cx="16118549" cy="8106906"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>335062</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>156137</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F5B46DA-6963-48FF-AD7D-EF4DC9C73EC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17290473" y="471055"/>
+          <a:ext cx="18290553" cy="8164064"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>573441</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>77200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA7881D1-2642-4F0F-9D96-72C0084DBB93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="457200"/>
+          <a:ext cx="13908441" cy="7163800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>563915</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>96252</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAA82068-4B4C-4B7E-83E7-A0E9D00026FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15335250" y="457200"/>
+          <a:ext cx="13898915" cy="7182852"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -2280,8 +3430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA96CEB-BF09-4F94-B123-E8EF3FF8EDBB}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:G12"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
@@ -2678,48 +3828,78 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" ht="66" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="3"/>
+      <c r="B13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="6">
+        <v>45513</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="3"/>
       <c r="J13" s="6"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" ht="184.8" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="3"/>
+      <c r="B14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="6">
+        <v>45513</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="H14" s="5"/>
       <c r="I14" s="3"/>
       <c r="J14" s="6"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" ht="79.2" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="6"/>
       <c r="G15" s="3"/>
@@ -2729,14 +3909,20 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" ht="105.6" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="6"/>
       <c r="G16" s="3"/>
@@ -2746,14 +3932,20 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" ht="105.6" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="6"/>
       <c r="G17" s="3"/>
@@ -2763,14 +3955,20 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" ht="92.4" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="6"/>
       <c r="G18" s="3"/>
@@ -2780,14 +3978,20 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" ht="92.4" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="6"/>
       <c r="G19" s="3"/>
@@ -2797,14 +4001,20 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" ht="118.8" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="6"/>
       <c r="G20" s="3"/>
@@ -3369,6 +4579,290 @@
       </x14:dataValidations>
     </ext>
   </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E509E872-F7F1-45FA-97E7-0B98C3E475EF}">
+  <dimension ref="B2:X2"/>
+  <sheetViews>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="X2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A69D1A-7D16-4501-BA69-101BF1A06F69}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603E8BC2-EEE4-4E72-8E0B-76E2A8FD5731}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE414601-8EFD-4F09-97D7-5255C08AA5C7}">
+  <dimension ref="B2:AA2"/>
+  <sheetViews>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="Y50" sqref="Y50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC6E52C-3EC5-4AFE-A82A-85482FAD5341}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <protectedRanges>
+    <protectedRange sqref="A1:A25" name="範囲1"/>
+    <protectedRange sqref="A26:A28" name="範囲1_1"/>
+  </protectedRanges>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3466,203 +4960,92 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC6E52C-3EC5-4AFE-A82A-85482FAD5341}">
-  <dimension ref="A1:E28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A35BA5-8CB2-4380-B974-228ACE2110D2}">
+  <dimension ref="B2:AA2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA42" sqref="AA42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A14" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A15" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A16" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A17" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A19" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A20" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A21" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A23" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A24" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A25" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A26" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A27" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A28" s="1" t="s">
-        <v>36</v>
+    <row r="2" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <protectedRanges>
-    <protectedRange sqref="A1:A25" name="範囲1"/>
-    <protectedRange sqref="A26:A28" name="範囲1_1"/>
-  </protectedRanges>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D816AF8F-91BF-42A8-8EE1-878BFA535E67}">
+  <dimension ref="B2:AA2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A64" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AA77" sqref="AA77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4562A396-F825-4AEC-9323-BDD1182C505A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6CEF0D-7E1E-433E-A7EC-51D806308945}">
+  <dimension ref="B2:AA2"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/PJ管理/【内部】DRASAP移行PJ_バグリスト.xlsx
+++ b/PJ管理/【内部】DRASAP移行PJ_バグリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YFC-112\Documents\项目\drasap\DRASAP_Web\PJ管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7F9E57-C165-4357-B50A-A24052B321C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C619939F-53AE-4490-A59A-F44598E2A665}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{70C79F8E-3BD0-4225-BFFD-8E2606A3A956}"/>
   </bookViews>
@@ -20,11 +20,11 @@
     <sheet name="#11" sheetId="6" r:id="rId5"/>
     <sheet name="#12" sheetId="7" r:id="rId6"/>
     <sheet name="#13" sheetId="8" r:id="rId7"/>
-    <sheet name="#14" sheetId="9" r:id="rId8"/>
+    <sheet name="#14" sheetId="9" state="hidden" r:id="rId8"/>
     <sheet name="#15" sheetId="10" r:id="rId9"/>
     <sheet name="＃16" sheetId="11" r:id="rId10"/>
-    <sheet name="#17" sheetId="12" r:id="rId11"/>
-    <sheet name="#18" sheetId="13" r:id="rId12"/>
+    <sheet name="#17" sheetId="12" state="hidden" r:id="rId11"/>
+    <sheet name="#18" sheetId="13" state="hidden" r:id="rId12"/>
     <sheet name="#19" sheetId="14" r:id="rId13"/>
     <sheet name="設定" sheetId="2" state="hidden" r:id="rId14"/>
   </sheets>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="109">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -1471,7 +1471,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1514,6 +1514,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1544,7 +1550,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1625,6 +1631,18 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3430,8 +3448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA96CEB-BF09-4F94-B123-E8EF3FF8EDBB}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
@@ -3878,7 +3896,7 @@
         <v>45513</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="3"/>
@@ -3887,27 +3905,33 @@
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12" ht="79.2" x14ac:dyDescent="0.45">
-      <c r="A15" s="3">
+      <c r="A15" s="27">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="E15" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="30">
+        <v>45513</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="29"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
     </row>
     <row r="16" spans="1:12" ht="105.6" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
@@ -3923,9 +3947,15 @@
       <c r="D16" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="6">
+        <v>45513</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="H16" s="5"/>
       <c r="I16" s="3"/>
       <c r="J16" s="6"/>
@@ -3946,9 +3976,15 @@
       <c r="D17" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="6">
+        <v>45513</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="H17" s="5"/>
       <c r="I17" s="3"/>
       <c r="J17" s="6"/>
@@ -3956,50 +3992,62 @@
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12" ht="92.4" x14ac:dyDescent="0.45">
-      <c r="A18" s="3">
+      <c r="A18" s="27">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="E18" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="30">
+        <v>45513</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="29"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
     </row>
     <row r="19" spans="1:12" ht="92.4" x14ac:dyDescent="0.45">
-      <c r="A19" s="3">
+      <c r="A19" s="27">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="E19" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="30">
+        <v>45513</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="29"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
     </row>
     <row r="20" spans="1:12" ht="118.8" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
@@ -4015,9 +4063,15 @@
       <c r="D20" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="6">
+        <v>45513</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="H20" s="5"/>
       <c r="I20" s="3"/>
       <c r="J20" s="6"/>
@@ -4644,7 +4698,7 @@
   <dimension ref="B2:AA2"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Y50" sqref="Y50"/>
+      <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/PJ管理/【内部】DRASAP移行PJ_バグリスト.xlsx
+++ b/PJ管理/【内部】DRASAP移行PJ_バグリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YFC-112\Documents\项目\drasap\DRASAP_Web\PJ管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C619939F-53AE-4490-A59A-F44598E2A665}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B27A5F-D978-4134-8184-D765E0FE57CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{70C79F8E-3BD0-4225-BFFD-8E2606A3A956}"/>
   </bookViews>
@@ -26,7 +26,8 @@
     <sheet name="#17" sheetId="12" state="hidden" r:id="rId11"/>
     <sheet name="#18" sheetId="13" state="hidden" r:id="rId12"/>
     <sheet name="#19" sheetId="14" r:id="rId13"/>
-    <sheet name="設定" sheetId="2" state="hidden" r:id="rId14"/>
+    <sheet name="#20" sheetId="15" r:id="rId14"/>
+    <sheet name="設定" sheetId="2" state="hidden" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="115">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -1374,6 +1375,184 @@
     </rPh>
     <rPh sb="141" eb="143">
       <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索結果は2000&lt;件数&lt;20000の場合、「検索中」は終わらない</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケンスウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ケンサクチュウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①123456（任意）ユーザをログインする
+②ホームページの検索条件にて：
+③図番：空白
+④作成日：14/01/01-
+⑤検索開始
+⑥検索結果が多いの警告メッセージがある、続けるを押下
+⑦検索中メッセージを表示する、そして終わらない</t>
+    <rPh sb="67" eb="71">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索結果は2000&lt;件数&lt;20000の場合、警告メッセージを中止できない</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケンスウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>チュウシバアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①123456（任意）ユーザをログインする
+②ホームページの検索条件にて：
+③図番：空白
+④作成日：14/01/01-
+⑤検索開始
+⑥検索結果が多いの警告メッセージがある、中止するを押下
+⑦何も変わらない</t>
+    <rPh sb="67" eb="71">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>チュウシ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図番指定順条件を使用した後、検索機能にバグ発生</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①123456（任意）ユーザをログインする
+②ホームページの検索条件にて：
+③複数図番：
+T06B0M0003A
+PBBB007002A
+④検索開始
+⑤検索結果:
+PBBB007002A
+T06B0M0003A
+新規検索
+①ホームページの検索条件にて：
+②複数図番：
+T06B0M0003A
+PBBB007002A
+③作成日：11/01/01-
+④検索結果:
+T06B0M0003A
+新規検索
+①ホームページの検索条件にて：
+②複数図番：
+T06B0M0003A
+PBBB007002A
+③図番指定順：　チェック
+④検索結果:
+T06B0M0003A
+PBBB007002A
+新規検索
+①ホームページの検索条件にて：
+②複数図番：
+T06B0M0003A
+PBBB007002A
+③作成日：11/01/01-
+④検索結果:
+T06B0M0003A
+PBBB007002A
+新規検索
+①ホームページの検索条件にて：
+②複数図番：
+T06B0M0003A
+PBBB007002A
+③図番：reabgerhwehwwe5（任意）
+④検索結果:
+T06B0M0003A
+PBBB007002A</t>
+    <rPh sb="106" eb="108">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="159" eb="162">
+      <t>サクセイニチ</t>
+    </rPh>
+    <rPh sb="439" eb="441">
+      <t>ズバン</t>
+    </rPh>
+    <rPh sb="458" eb="460">
+      <t>ニンイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2022,6 +2201,55 @@
         <a:xfrm>
           <a:off x="17335500" y="457200"/>
           <a:ext cx="18290553" cy="8183117"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>330223</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>223212</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4F9BBE0-F69A-4740-A1FA-4DFA6AF172F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="665018" y="235527"/>
+          <a:ext cx="18285714" cy="8466667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3448,8 +3676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA96CEB-BF09-4F94-B123-E8EF3FF8EDBB}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
@@ -4078,51 +4306,87 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" ht="92.4" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="3"/>
+      <c r="B21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="6">
+        <v>45517</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="H21" s="5"/>
       <c r="I21" s="3"/>
       <c r="J21" s="6"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" ht="92.4" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="3"/>
+      <c r="B22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="6">
+        <v>45517</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="H22" s="5"/>
       <c r="I22" s="3"/>
       <c r="J22" s="6"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" ht="409.6" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="3"/>
+      <c r="B23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="6">
+        <v>45517</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="H23" s="5"/>
       <c r="I23" s="3"/>
       <c r="J23" s="6"/>
@@ -4719,6 +4983,22 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D916AE4-0F6D-4C1F-91CA-7633845F6D1E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC6E52C-3EC5-4AFE-A82A-85482FAD5341}">
   <dimension ref="A1:E28"/>
   <sheetViews>

--- a/PJ管理/【内部】DRASAP移行PJ_バグリスト.xlsx
+++ b/PJ管理/【内部】DRASAP移行PJ_バグリスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YFC-112\Documents\项目\drasap\DRASAP_Web\PJ管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B27A5F-D978-4134-8184-D765E0FE57CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40907E45-DA24-48ED-BBC0-2F781801E5C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{70C79F8E-3BD0-4225-BFFD-8E2606A3A956}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="14" xr2:uid="{70C79F8E-3BD0-4225-BFFD-8E2606A3A956}"/>
   </bookViews>
   <sheets>
     <sheet name="BugList" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,8 @@
     <sheet name="#18" sheetId="13" state="hidden" r:id="rId12"/>
     <sheet name="#19" sheetId="14" r:id="rId13"/>
     <sheet name="#20" sheetId="15" r:id="rId14"/>
-    <sheet name="設定" sheetId="2" state="hidden" r:id="rId15"/>
+    <sheet name="#23" sheetId="16" r:id="rId15"/>
+    <sheet name="設定" sheetId="2" state="hidden" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="118">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -1553,6 +1554,47 @@
     </rPh>
     <rPh sb="458" eb="460">
       <t>ニンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HOST依頼削除画面</t>
+  </si>
+  <si>
+    <t>入力番号はいつも赤い</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①123456（任意）ユーザをログインする
+②HOST依頼削除ページにて：
+③削除依頼番号：2007110812541252525（任意）
+④削除を押下</t>
+    <rPh sb="39" eb="41">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>オウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2250,6 +2292,187 @@
         <a:xfrm>
           <a:off x="665018" y="235527"/>
           <a:ext cx="18285714" cy="8466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>116829</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>182149</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{329FA7A3-110C-4A04-A5E5-CA015F6A9593}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="457200"/>
+          <a:ext cx="18119079" cy="8411749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>250197</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>77359</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF1FED5F-BD96-4D7E-A381-7CCFA6CB2C84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="9144000"/>
+          <a:ext cx="18252447" cy="8306959"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>69197</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>210664</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93F19182-519F-42A9-9574-451A9A511791}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20669250" y="457200"/>
+          <a:ext cx="18071447" cy="7983064"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>69197</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>191611</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E236E8FB-608A-4783-A405-26D1125BA109}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20669250" y="8915400"/>
+          <a:ext cx="18071447" cy="7964011"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3676,8 +3899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA96CEB-BF09-4F94-B123-E8EF3FF8EDBB}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23:G23"/>
+    <sheetView topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
@@ -4393,17 +4616,29 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" ht="52.8" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="3"/>
+      <c r="B24" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="6">
+        <v>45517</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="H24" s="5"/>
       <c r="I24" s="3"/>
       <c r="J24" s="6"/>
@@ -4999,6 +5234,31 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D0ADAB-3952-4EBD-A7A7-122951F66519}">
+  <dimension ref="B2:AF2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AF40" sqref="AF40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC6E52C-3EC5-4AFE-A82A-85482FAD5341}">
   <dimension ref="A1:E28"/>
   <sheetViews>

--- a/PJ管理/【内部】DRASAP移行PJ_バグリスト.xlsx
+++ b/PJ管理/【内部】DRASAP移行PJ_バグリスト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20388"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YFC-112\Documents\项目\drasap\DRASAP_Web\PJ管理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40907E45-DA24-48ED-BBC0-2F781801E5C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A20365D-A088-46AF-97CE-D4FE14F516AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="14" xr2:uid="{70C79F8E-3BD0-4225-BFFD-8E2606A3A956}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{70C79F8E-3BD0-4225-BFFD-8E2606A3A956}"/>
   </bookViews>
   <sheets>
     <sheet name="BugList" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="127">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -1595,6 +1595,108 @@
     </rPh>
     <rPh sb="74" eb="76">
       <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正しました。</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D:\Tomcat9\DRASAP\DWG_backupフォルダを作ってください。</t>
+    <rPh sb="33" eb="34">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正しました。POST請求パース不正。</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>フセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正しました。POST請求パース不正。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私の環境で検索出来る</t>
+    <rPh sb="0" eb="1">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クローズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>６と同じ問題なので、一旦クローズしてください。</t>
+    <rPh sb="2" eb="3">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イッタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>古い環境でこのようなやれば、結果は違いますか？比較エビデンス見て欲しい、バグは何か知って欲しい。</t>
+    <rPh sb="0" eb="1">
+      <t>フル</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ホ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ホ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3899,28 +4001,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA96CEB-BF09-4F94-B123-E8EF3FF8EDBB}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.69921875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.8984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="36.59765625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36.625" style="7" customWidth="1"/>
     <col min="4" max="4" width="54" style="2" customWidth="1"/>
     <col min="5" max="5" width="6" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.8984375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="46.875" style="7" customWidth="1"/>
     <col min="9" max="9" width="6" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31" style="2" customWidth="1"/>
-    <col min="12" max="12" width="31.3984375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="31.375" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="18" customFormat="1" ht="16.2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -3958,7 +4060,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A2" s="20">
         <f>ROW()-1</f>
         <v>1</v>
@@ -3995,7 +4097,7 @@
       </c>
       <c r="L2" s="21"/>
     </row>
-    <row r="3" spans="1:12" ht="92.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" ht="89.25" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <f t="shared" ref="A3:A51" si="0">ROW()-1</f>
         <v>2</v>
@@ -4024,7 +4126,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="52.8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" ht="51" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4053,7 +4155,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="52.8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" ht="51" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4082,7 +4184,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4111,7 +4213,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4140,7 +4242,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" ht="52.8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" ht="51" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4169,7 +4271,7 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" ht="92.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" ht="89.25" x14ac:dyDescent="0.4">
       <c r="A9" s="20">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4204,7 +4306,7 @@
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
     </row>
-    <row r="10" spans="1:12" ht="39.6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" ht="38.25" x14ac:dyDescent="0.4">
       <c r="A10" s="20">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4239,7 +4341,7 @@
       <c r="K10" s="21"/>
       <c r="L10" s="21"/>
     </row>
-    <row r="11" spans="1:12" ht="105.6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" ht="102" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4262,13 +4364,15 @@
       <c r="G11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="6"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" ht="66" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" ht="76.5" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4291,13 +4395,15 @@
       <c r="G12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="6"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" ht="66" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" ht="63.75" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4320,13 +4426,15 @@
       <c r="G13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="5"/>
+      <c r="H13" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="6"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" ht="184.8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" ht="178.5" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4349,13 +4457,15 @@
       <c r="G14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="6"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" ht="79.2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" ht="76.5" x14ac:dyDescent="0.4">
       <c r="A15" s="27">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4384,7 +4494,7 @@
       <c r="K15" s="28"/>
       <c r="L15" s="28"/>
     </row>
-    <row r="16" spans="1:12" ht="105.6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" ht="102" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4407,13 +4517,15 @@
       <c r="G16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="5"/>
+      <c r="H16" s="5" t="s">
+        <v>122</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="6"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="105.6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" ht="102" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4436,13 +4548,15 @@
       <c r="G17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="5"/>
+      <c r="H17" s="5" t="s">
+        <v>122</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="6"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="92.4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" ht="89.25" x14ac:dyDescent="0.4">
       <c r="A18" s="27">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4463,7 +4577,7 @@
         <v>45513</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="H18" s="29"/>
       <c r="I18" s="27"/>
@@ -4471,7 +4585,7 @@
       <c r="K18" s="28"/>
       <c r="L18" s="28"/>
     </row>
-    <row r="19" spans="1:12" ht="92.4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" ht="89.25" x14ac:dyDescent="0.4">
       <c r="A19" s="27">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4500,7 +4614,7 @@
       <c r="K19" s="28"/>
       <c r="L19" s="28"/>
     </row>
-    <row r="20" spans="1:12" ht="118.8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" ht="114.75" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4523,13 +4637,15 @@
       <c r="G20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="5"/>
+      <c r="H20" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="I20" s="3"/>
       <c r="J20" s="6"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" ht="92.4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" ht="89.25" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4552,13 +4668,15 @@
       <c r="G21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="5"/>
+      <c r="H21" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="I21" s="3"/>
       <c r="J21" s="6"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" ht="92.4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" ht="89.25" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4581,13 +4699,15 @@
       <c r="G22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="5"/>
+      <c r="H22" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="I22" s="3"/>
       <c r="J22" s="6"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" ht="409.6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4610,13 +4730,15 @@
       <c r="G23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H23" s="5"/>
+      <c r="H23" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="I23" s="3"/>
       <c r="J23" s="6"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" ht="52.8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" ht="51" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4639,13 +4761,15 @@
       <c r="G24" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H24" s="5"/>
+      <c r="H24" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="6"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4662,7 +4786,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4679,7 +4803,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4696,7 +4820,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4713,7 +4837,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4730,7 +4854,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4747,7 +4871,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4764,7 +4888,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -4781,7 +4905,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4798,7 +4922,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4815,7 +4939,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4832,7 +4956,7 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4849,7 +4973,7 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4866,7 +4990,7 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -4883,7 +5007,7 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -4900,7 +5024,7 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -4917,7 +5041,7 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4934,7 +5058,7 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4951,7 +5075,7 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4968,7 +5092,7 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4985,7 +5109,7 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -5002,7 +5126,7 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -5019,7 +5143,7 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -5036,7 +5160,7 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -5053,7 +5177,7 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -5070,7 +5194,7 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -5087,7 +5211,7 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -5143,9 +5267,9 @@
       <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>75</v>
       </c>
@@ -5168,7 +5292,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5184,7 +5308,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5200,9 +5324,9 @@
       <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>75</v>
       </c>
@@ -5225,7 +5349,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5237,13 +5361,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D0ADAB-3952-4EBD-A7A7-122951F66519}">
   <dimension ref="B2:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="AF40" sqref="AF40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>75</v>
       </c>
@@ -5266,12 +5390,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -5282,7 +5406,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -5293,7 +5417,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -5304,7 +5428,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -5315,7 +5439,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -5326,7 +5450,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -5337,7 +5461,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -5345,107 +5469,107 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
@@ -5468,9 +5592,9 @@
       <selection activeCell="A2" sqref="A2:X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -5481,7 +5605,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -5501,9 +5625,9 @@
       <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -5529,7 +5653,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5545,7 +5669,7 @@
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5561,9 +5685,9 @@
       <selection activeCell="AA42" sqref="AA42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>75</v>
       </c>
@@ -5586,9 +5710,9 @@
       <selection activeCell="AA77" sqref="AA77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>75</v>
       </c>
@@ -5611,7 +5735,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5627,9 +5751,9 @@
       <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>75</v>
       </c>

--- a/PJ管理/【内部】DRASAP移行PJ_バグリスト.xlsx
+++ b/PJ管理/【内部】DRASAP移行PJ_バグリスト.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20388"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YFC-112\Documents\项目\drasap\DRASAP_Web\PJ管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A20365D-A088-46AF-97CE-D4FE14F516AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E591C3-C7D8-49FA-BA04-E917B08C22FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{70C79F8E-3BD0-4225-BFFD-8E2606A3A956}"/>
   </bookViews>
@@ -18,10 +18,10 @@
     <sheet name="#8" sheetId="4" state="hidden" r:id="rId3"/>
     <sheet name="#9" sheetId="5" state="hidden" r:id="rId4"/>
     <sheet name="#11" sheetId="6" r:id="rId5"/>
-    <sheet name="#12" sheetId="7" r:id="rId6"/>
+    <sheet name="#12" sheetId="7" state="hidden" r:id="rId6"/>
     <sheet name="#13" sheetId="8" r:id="rId7"/>
     <sheet name="#14" sheetId="9" state="hidden" r:id="rId8"/>
-    <sheet name="#15" sheetId="10" r:id="rId9"/>
+    <sheet name="#15" sheetId="10" state="hidden" r:id="rId9"/>
     <sheet name="＃16" sheetId="11" r:id="rId10"/>
     <sheet name="#17" sheetId="12" state="hidden" r:id="rId11"/>
     <sheet name="#18" sheetId="13" state="hidden" r:id="rId12"/>
@@ -1794,7 +1794,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1837,12 +1837,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1873,7 +1867,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1954,18 +1948,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4001,28 +3983,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA96CEB-BF09-4F94-B123-E8EF3FF8EDBB}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="36.625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="4.69921875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.8984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36.59765625" style="7" customWidth="1"/>
     <col min="4" max="4" width="54" style="2" customWidth="1"/>
     <col min="5" max="5" width="6" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="46.8984375" style="7" customWidth="1"/>
     <col min="9" max="9" width="6" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31" style="2" customWidth="1"/>
-    <col min="12" max="12" width="31.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="31.3984375" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" s="18" customFormat="1" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -4060,7 +4042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="25.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="26.4" x14ac:dyDescent="0.45">
       <c r="A2" s="20">
         <f>ROW()-1</f>
         <v>1</v>
@@ -4097,7 +4079,7 @@
       </c>
       <c r="L2" s="21"/>
     </row>
-    <row r="3" spans="1:12" ht="89.25" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" ht="92.4" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <f t="shared" ref="A3:A51" si="0">ROW()-1</f>
         <v>2</v>
@@ -4126,7 +4108,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="51" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" ht="52.8" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4155,7 +4137,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="51" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" ht="52.8" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4184,7 +4166,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4213,7 +4195,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4242,7 +4224,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" ht="51" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" ht="52.8" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4271,7 +4253,7 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" ht="89.25" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" ht="92.4" x14ac:dyDescent="0.45">
       <c r="A9" s="20">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4306,7 +4288,7 @@
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
     </row>
-    <row r="10" spans="1:12" ht="38.25" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" ht="39.6" x14ac:dyDescent="0.45">
       <c r="A10" s="20">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4341,38 +4323,38 @@
       <c r="K10" s="21"/>
       <c r="L10" s="21"/>
     </row>
-    <row r="11" spans="1:12" ht="102" x14ac:dyDescent="0.4">
-      <c r="A11" s="3">
+    <row r="11" spans="1:12" ht="105.6" x14ac:dyDescent="0.45">
+      <c r="A11" s="20">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="23">
         <v>45513</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="5" t="s">
+      <c r="G11" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" ht="76.5" x14ac:dyDescent="0.4">
+      <c r="I11" s="20"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+    </row>
+    <row r="12" spans="1:12" ht="66" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4403,249 +4385,249 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" ht="63.75" x14ac:dyDescent="0.4">
-      <c r="A13" s="3">
+    <row r="13" spans="1:12" ht="66" x14ac:dyDescent="0.45">
+      <c r="A13" s="20">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="23">
         <v>45513</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" ht="178.5" x14ac:dyDescent="0.4">
-      <c r="A14" s="3">
+      <c r="I13" s="20"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+    </row>
+    <row r="14" spans="1:12" ht="184.8" x14ac:dyDescent="0.45">
+      <c r="A14" s="20">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="23">
         <v>45513</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" ht="76.5" x14ac:dyDescent="0.4">
-      <c r="A15" s="27">
+      <c r="I14" s="20"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+    </row>
+    <row r="15" spans="1:12" ht="79.2" x14ac:dyDescent="0.45">
+      <c r="A15" s="20">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="23">
         <v>45513</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-    </row>
-    <row r="16" spans="1:12" ht="102" x14ac:dyDescent="0.4">
-      <c r="A16" s="3">
+      <c r="H15" s="22"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+    </row>
+    <row r="16" spans="1:12" ht="105.6" x14ac:dyDescent="0.45">
+      <c r="A16" s="20">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="23">
         <v>45513</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="5" t="s">
+      <c r="G16" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" ht="102" x14ac:dyDescent="0.4">
-      <c r="A17" s="3">
+      <c r="I16" s="20"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+    </row>
+    <row r="17" spans="1:12" ht="105.6" x14ac:dyDescent="0.45">
+      <c r="A17" s="20">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="23">
         <v>45513</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="5" t="s">
+      <c r="G17" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:12" ht="89.25" x14ac:dyDescent="0.4">
-      <c r="A18" s="27">
+      <c r="I17" s="20"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+    </row>
+    <row r="18" spans="1:12" ht="92.4" x14ac:dyDescent="0.45">
+      <c r="A18" s="20">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="23">
         <v>45513</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-    </row>
-    <row r="19" spans="1:12" ht="89.25" x14ac:dyDescent="0.4">
-      <c r="A19" s="27">
+      <c r="H18" s="22"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+    </row>
+    <row r="19" spans="1:12" ht="92.4" x14ac:dyDescent="0.45">
+      <c r="A19" s="20">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="23">
         <v>45513</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="H19" s="29"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-    </row>
-    <row r="20" spans="1:12" ht="114.75" x14ac:dyDescent="0.4">
-      <c r="A20" s="3">
+      <c r="H19" s="22"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+    </row>
+    <row r="20" spans="1:12" ht="118.8" x14ac:dyDescent="0.45">
+      <c r="A20" s="20">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="23">
         <v>45513</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" s="5" t="s">
+      <c r="G20" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="1:12" ht="89.25" x14ac:dyDescent="0.4">
+      <c r="I20" s="20"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+    </row>
+    <row r="21" spans="1:12" ht="92.4" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4666,7 +4648,7 @@
         <v>45517</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>120</v>
@@ -4676,7 +4658,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" ht="89.25" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" ht="92.4" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4697,7 +4679,7 @@
         <v>45517</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>121</v>
@@ -4707,7 +4689,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" ht="409.5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" ht="409.6" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4738,38 +4720,38 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" ht="51" x14ac:dyDescent="0.4">
-      <c r="A24" s="3">
+    <row r="24" spans="1:12" ht="52.8" x14ac:dyDescent="0.45">
+      <c r="A24" s="20">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="23">
         <v>45517</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H24" s="5" t="s">
+      <c r="G24" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="I24" s="20"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4786,7 +4768,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4803,7 +4785,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4820,7 +4802,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4837,7 +4819,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4854,7 +4836,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4871,7 +4853,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4888,7 +4870,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -4905,7 +4887,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4922,7 +4904,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4939,7 +4921,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4956,7 +4938,7 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" s="3">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4973,7 +4955,7 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4990,7 +4972,7 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -5007,7 +4989,7 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -5024,7 +5006,7 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -5041,7 +5023,7 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -5058,7 +5040,7 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -5075,7 +5057,7 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5092,7 +5074,7 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44" s="3">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5109,7 +5091,7 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45" s="3">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -5126,7 +5108,7 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -5143,7 +5125,7 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47" s="3">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -5160,7 +5142,7 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48" s="3">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -5177,7 +5159,7 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49" s="3">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -5194,7 +5176,7 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50" s="3">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -5211,7 +5193,7 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51" s="3">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -5267,9 +5249,9 @@
       <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>75</v>
       </c>
@@ -5292,7 +5274,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5308,7 +5290,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5324,9 +5306,9 @@
       <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>75</v>
       </c>
@@ -5349,7 +5331,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5365,9 +5347,9 @@
       <selection activeCell="AF40" sqref="AF40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>75</v>
       </c>
@@ -5390,12 +5372,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -5406,7 +5388,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -5417,7 +5399,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -5428,7 +5410,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -5439,7 +5421,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -5450,7 +5432,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -5461,7 +5443,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -5469,107 +5451,107 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
@@ -5592,9 +5574,9 @@
       <selection activeCell="A2" sqref="A2:X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -5605,7 +5587,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -5625,9 +5607,9 @@
       <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -5653,7 +5635,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5669,7 +5651,7 @@
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5681,13 +5663,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A35BA5-8CB2-4380-B974-228ACE2110D2}">
   <dimension ref="B2:AA2"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="N13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AA42" sqref="AA42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>75</v>
       </c>
@@ -5710,9 +5692,9 @@
       <selection activeCell="AA77" sqref="AA77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>75</v>
       </c>
@@ -5735,7 +5717,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5751,9 +5733,9 @@
       <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>75</v>
       </c>

--- a/PJ管理/【内部】DRASAP移行PJ_バグリスト.xlsx
+++ b/PJ管理/【内部】DRASAP移行PJ_バグリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YFC-112\Documents\项目\drasap\DRASAP_Web\PJ管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E591C3-C7D8-49FA-BA04-E917B08C22FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432352FE-E16E-4CF7-AA14-557348C85815}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{70C79F8E-3BD0-4225-BFFD-8E2606A3A956}"/>
   </bookViews>
@@ -18,17 +18,18 @@
     <sheet name="#8" sheetId="4" state="hidden" r:id="rId3"/>
     <sheet name="#9" sheetId="5" state="hidden" r:id="rId4"/>
     <sheet name="#11" sheetId="6" r:id="rId5"/>
-    <sheet name="#12" sheetId="7" state="hidden" r:id="rId6"/>
-    <sheet name="#13" sheetId="8" r:id="rId7"/>
-    <sheet name="#14" sheetId="9" state="hidden" r:id="rId8"/>
-    <sheet name="#15" sheetId="10" state="hidden" r:id="rId9"/>
-    <sheet name="＃16" sheetId="11" r:id="rId10"/>
-    <sheet name="#17" sheetId="12" state="hidden" r:id="rId11"/>
-    <sheet name="#18" sheetId="13" state="hidden" r:id="rId12"/>
-    <sheet name="#19" sheetId="14" r:id="rId13"/>
-    <sheet name="#20" sheetId="15" r:id="rId14"/>
-    <sheet name="#23" sheetId="16" r:id="rId15"/>
-    <sheet name="設定" sheetId="2" state="hidden" r:id="rId16"/>
+    <sheet name="#22" sheetId="17" r:id="rId6"/>
+    <sheet name="#12" sheetId="7" state="hidden" r:id="rId7"/>
+    <sheet name="#13" sheetId="8" state="hidden" r:id="rId8"/>
+    <sheet name="#14" sheetId="9" state="hidden" r:id="rId9"/>
+    <sheet name="#15" sheetId="10" state="hidden" r:id="rId10"/>
+    <sheet name="＃16" sheetId="11" state="hidden" r:id="rId11"/>
+    <sheet name="#17" sheetId="12" state="hidden" r:id="rId12"/>
+    <sheet name="#18" sheetId="13" state="hidden" r:id="rId13"/>
+    <sheet name="#19" sheetId="14" state="hidden" r:id="rId14"/>
+    <sheet name="#20" sheetId="15" state="hidden" r:id="rId15"/>
+    <sheet name="#23" sheetId="16" state="hidden" r:id="rId16"/>
+    <sheet name="設定" sheetId="2" state="hidden" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="127">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -1492,6 +1493,149 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HOST依頼削除画面</t>
+  </si>
+  <si>
+    <t>入力番号はいつも赤い</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①123456（任意）ユーザをログインする
+②HOST依頼削除ページにて：
+③削除依頼番号：2007110812541252525（任意）
+④削除を押下</t>
+    <rPh sb="39" eb="41">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正しました。</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D:\Tomcat9\DRASAP\DWG_backupフォルダを作ってください。</t>
+    <rPh sb="33" eb="34">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正しました。POST請求パース不正。</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>フセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正しました。POST請求パース不正。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私の環境で検索出来る</t>
+    <rPh sb="0" eb="1">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クローズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>６と同じ問題なので、一旦クローズしてください。</t>
+    <rPh sb="2" eb="3">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イッタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>古い環境でこのようなやれば、結果は違いますか？比較エビデンス見て欲しい、バグは何か知って欲しい。</t>
+    <rPh sb="0" eb="1">
+      <t>フル</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ホ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ホ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1539,7 +1683,13 @@
 ③図番：reabgerhwehwwe5（任意）
 ④検索結果:
 T06B0M0003A
-PBBB007002A</t>
+PBBB007002A
+新規検索
+①ホームページの検索条件にて：
+②複数図番：
+なし③図番：PBBB007002A（任意）
+④検索結果:
+エラー発生</t>
     <rPh sb="106" eb="108">
       <t>シンキ</t>
     </rPh>
@@ -1555,148 +1705,8 @@
     <rPh sb="458" eb="460">
       <t>ニンイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HOST依頼削除画面</t>
-  </si>
-  <si>
-    <t>入力番号はいつも赤い</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>アカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①123456（任意）ユーザをログインする
-②HOST依頼削除ページにて：
-③削除依頼番号：2007110812541252525（任意）
-④削除を押下</t>
-    <rPh sb="39" eb="41">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>イライ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>修正しました。</t>
-    <rPh sb="0" eb="2">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D:\Tomcat9\DRASAP\DWG_backupフォルダを作ってください。</t>
-    <rPh sb="33" eb="34">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>修正しました。POST請求パース不正。</t>
-    <rPh sb="0" eb="2">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>セイキュウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>フセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>修正しました。POST請求パース不正。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>修正しました。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>私の環境で検索出来る</t>
-    <rPh sb="0" eb="1">
-      <t>ワタシ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>デキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クローズ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>６と同じ問題なので、一旦クローズしてください。</t>
-    <rPh sb="2" eb="3">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>イッタン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>古い環境でこのようなやれば、結果は違いますか？比較エビデンス見て欲しい、バグは何か知って欲しい。</t>
-    <rPh sb="0" eb="1">
-      <t>フル</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>チガ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒカク</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ホ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>ホ</t>
+    <rPh sb="553" eb="555">
+      <t>ハッセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2153,6 +2163,99 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>573441</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>77200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA7881D1-2642-4F0F-9D96-72C0084DBB93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="457200"/>
+          <a:ext cx="13908441" cy="7163800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>563915</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>96252</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAA82068-4B4C-4B7E-83E7-A0E9D00026FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15335250" y="457200"/>
+          <a:ext cx="13898915" cy="7182852"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -2196,7 +2299,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2245,7 +2348,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2338,7 +2441,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2387,7 +2490,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2989,6 +3092,539 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>288303</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>125020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{065E5974-ED36-4B55-9081-735DA4B7F43A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="457200"/>
+          <a:ext cx="18290553" cy="8564170"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>250197</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>220254</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F5E19C6-505F-4E46-8C48-4BC659861C79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="9353550"/>
+          <a:ext cx="18252447" cy="8449854"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>288303</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>77391</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{263A3BE2-CCE5-45E1-9E8A-4276062BCAAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="18268950"/>
+          <a:ext cx="18290553" cy="8535591"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>288303</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>96444</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99332A8F-1F94-4B04-A818-6BC5785179BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="27184350"/>
+          <a:ext cx="18290553" cy="8554644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>288303</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>77391</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E862B09D-D5B6-46AD-83BA-F2183918F289}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="36099750"/>
+          <a:ext cx="18290553" cy="8535591"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>288303</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>96441</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D65FE45-12C0-45E2-8CB0-8058BEB0EB72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20002500" y="457200"/>
+          <a:ext cx="18290553" cy="8535591"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>288303</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>105970</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F0B1C9E-778E-449E-A87F-D98B1E101CAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20002500" y="9353550"/>
+          <a:ext cx="18290553" cy="8564170"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>288303</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>105970</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9957EAC6-436D-49B0-ABE4-6AB9BEEAFF51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20002500" y="18268950"/>
+          <a:ext cx="18290553" cy="8564170"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>288303</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>115496</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC94F9AC-E099-47EC-823E-09E1C0841740}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20002500" y="27184350"/>
+          <a:ext cx="18290553" cy="8573696"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>288303</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>125023</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{474E45FE-BE36-4C6D-B4FD-050C50D23FFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20002500" y="36099750"/>
+          <a:ext cx="18290553" cy="8583223"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>288303</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>134549</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A549C11-9A69-4F5F-A413-91BD21396C8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20002500" y="45015150"/>
+          <a:ext cx="18290553" cy="8592749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>288303</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>115496</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99D06D04-0F15-4DC4-8930-6AC6380A9849}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="44786550"/>
+          <a:ext cx="18290553" cy="8573696"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>557415</xdr:colOff>
       <xdr:row>37</xdr:row>
@@ -3160,7 +3796,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3429,7 +4065,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3478,7 +4114,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3560,99 +4196,6 @@
         <a:xfrm>
           <a:off x="17290473" y="471055"/>
           <a:ext cx="18290553" cy="8164064"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>573441</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>77200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA7881D1-2642-4F0F-9D96-72C0084DBB93}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="666750" y="457200"/>
-          <a:ext cx="13908441" cy="7163800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>563915</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>96252</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAA82068-4B4C-4B7E-83E7-A0E9D00026FC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15335250" y="457200"/>
-          <a:ext cx="13898915" cy="7182852"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3984,7 +4527,7 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
@@ -4347,7 +4890,7 @@
         <v>62</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="23"/>
@@ -4378,7 +4921,7 @@
         <v>42</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="6"/>
@@ -4409,7 +4952,7 @@
         <v>42</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="23"/>
@@ -4440,7 +4983,7 @@
         <v>62</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="23"/>
@@ -4500,7 +5043,7 @@
         <v>62</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="23"/>
@@ -4531,7 +5074,7 @@
         <v>62</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="23"/>
@@ -4559,7 +5102,7 @@
         <v>45513</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H18" s="22"/>
       <c r="I18" s="20"/>
@@ -4620,7 +5163,7 @@
         <v>62</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I20" s="20"/>
       <c r="J20" s="23"/>
@@ -4651,7 +5194,7 @@
         <v>62</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="6"/>
@@ -4682,7 +5225,7 @@
         <v>62</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="6"/>
@@ -4701,7 +5244,7 @@
         <v>113</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>87</v>
@@ -4713,7 +5256,7 @@
         <v>42</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="6"/>
@@ -4726,13 +5269,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="D24" s="22" t="s">
         <v>116</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>117</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>87</v>
@@ -4744,7 +5287,7 @@
         <v>62</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I24" s="20"/>
       <c r="J24" s="23"/>
@@ -5242,6 +5785,31 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6CEF0D-7E1E-433E-A7EC-51D806308945}">
+  <dimension ref="B2:AA2"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E509E872-F7F1-45FA-97E7-0B98C3E475EF}">
   <dimension ref="B2:X2"/>
   <sheetViews>
@@ -5266,7 +5834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A69D1A-7D16-4501-BA69-101BF1A06F69}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5282,7 +5850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603E8BC2-EEE4-4E72-8E0B-76E2A8FD5731}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5298,7 +5866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE414601-8EFD-4F09-97D7-5255C08AA5C7}">
   <dimension ref="B2:AA2"/>
   <sheetViews>
@@ -5323,7 +5891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D916AE4-0F6D-4C1F-91CA-7633845F6D1E}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5339,7 +5907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D0ADAB-3952-4EBD-A7A7-122951F66519}">
   <dimension ref="B2:AF2"/>
   <sheetViews>
@@ -5364,7 +5932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC6E52C-3EC5-4AFE-A82A-85482FAD5341}">
   <dimension ref="A1:E28"/>
   <sheetViews>
@@ -5660,6 +6228,32 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6174AA-9DE7-4B97-8D7F-1623622D19FE}">
+  <dimension ref="B2:AE6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A157" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B197" sqref="B197"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:31" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="2:31" ht="16.2" customHeight="1" x14ac:dyDescent="0.45"/>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A35BA5-8CB2-4380-B974-228ACE2110D2}">
   <dimension ref="B2:AA2"/>
   <sheetViews>
@@ -5684,11 +6278,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D816AF8F-91BF-42A8-8EE1-878BFA535E67}">
   <dimension ref="B2:AA2"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="AA77" sqref="AA77"/>
     </sheetView>
   </sheetViews>
@@ -5709,7 +6303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4562A396-F825-4AEC-9323-BDD1182C505A}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5723,29 +6317,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6CEF0D-7E1E-433E-A7EC-51D806308945}">
-  <dimension ref="B2:AA2"/>
-  <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/PJ管理/【内部】DRASAP移行PJ_バグリスト.xlsx
+++ b/PJ管理/【内部】DRASAP移行PJ_バグリスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YFC-112\Documents\项目\drasap\DRASAP_Web\PJ管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432352FE-E16E-4CF7-AA14-557348C85815}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8044143-0518-4A25-BA75-B46E97816EB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{70C79F8E-3BD0-4225-BFFD-8E2606A3A956}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{70C79F8E-3BD0-4225-BFFD-8E2606A3A956}"/>
   </bookViews>
   <sheets>
     <sheet name="BugList" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,18 @@
     <sheet name="#9" sheetId="5" state="hidden" r:id="rId4"/>
     <sheet name="#11" sheetId="6" r:id="rId5"/>
     <sheet name="#22" sheetId="17" r:id="rId6"/>
-    <sheet name="#12" sheetId="7" state="hidden" r:id="rId7"/>
-    <sheet name="#13" sheetId="8" state="hidden" r:id="rId8"/>
-    <sheet name="#14" sheetId="9" state="hidden" r:id="rId9"/>
-    <sheet name="#15" sheetId="10" state="hidden" r:id="rId10"/>
-    <sheet name="＃16" sheetId="11" state="hidden" r:id="rId11"/>
-    <sheet name="#17" sheetId="12" state="hidden" r:id="rId12"/>
-    <sheet name="#18" sheetId="13" state="hidden" r:id="rId13"/>
-    <sheet name="#19" sheetId="14" state="hidden" r:id="rId14"/>
-    <sheet name="#20" sheetId="15" state="hidden" r:id="rId15"/>
-    <sheet name="#23" sheetId="16" state="hidden" r:id="rId16"/>
-    <sheet name="設定" sheetId="2" state="hidden" r:id="rId17"/>
+    <sheet name="#24" sheetId="18" r:id="rId7"/>
+    <sheet name="#12" sheetId="7" state="hidden" r:id="rId8"/>
+    <sheet name="#13" sheetId="8" state="hidden" r:id="rId9"/>
+    <sheet name="#14" sheetId="9" state="hidden" r:id="rId10"/>
+    <sheet name="#15" sheetId="10" state="hidden" r:id="rId11"/>
+    <sheet name="＃16" sheetId="11" state="hidden" r:id="rId12"/>
+    <sheet name="#17" sheetId="12" state="hidden" r:id="rId13"/>
+    <sheet name="#18" sheetId="13" state="hidden" r:id="rId14"/>
+    <sheet name="#19" sheetId="14" state="hidden" r:id="rId15"/>
+    <sheet name="#20" sheetId="15" state="hidden" r:id="rId16"/>
+    <sheet name="#23" sheetId="16" state="hidden" r:id="rId17"/>
+    <sheet name="設定" sheetId="2" state="hidden" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="129">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -1708,6 +1709,23 @@
     <rPh sb="553" eb="555">
       <t>ハッセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージ表示不正：
+本文中の余分な角括弧がある
+ひとつメッセージだけを表示できる</t>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①123456（任意）ユーザをログインする
+②ホームページの検索条件にて：
+③図番：^&amp;*&amp;(&amp;*()&amp;()
+④作成日：^&amp;*&amp;(&amp;*()&amp;()
+⑤検索開始</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2167,6 +2185,99 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>158112</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>98979</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CAA9DB1-ECD5-4216-8BF2-0E69939C59FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="665018" y="471055"/>
+          <a:ext cx="16118549" cy="8106906"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>335062</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>156137</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F5B46DA-6963-48FF-AD7D-EF4DC9C73EC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17290473" y="471055"/>
+          <a:ext cx="18290553" cy="8164064"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>573441</xdr:colOff>
       <xdr:row>33</xdr:row>
@@ -2250,7 +2361,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2299,7 +2410,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2348,7 +2459,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2441,7 +2552,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2490,7 +2601,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3625,6 +3736,99 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>514639</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>234979</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7490BFA-CA6F-4572-83B9-863AB9A8CEE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="665018" y="471055"/>
+          <a:ext cx="14480021" cy="8478433"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>598552</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>82558</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DBFA4FC-8796-4AEE-826E-F04A88B38AFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16625455" y="471055"/>
+          <a:ext cx="13898915" cy="8326012"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>557415</xdr:colOff>
       <xdr:row>37</xdr:row>
@@ -3796,7 +4000,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4065,7 +4269,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4103,99 +4307,6 @@
         <a:xfrm>
           <a:off x="665018" y="235527"/>
           <a:ext cx="18290553" cy="8221222"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>158112</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>98979</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CAA9DB1-ECD5-4216-8BF2-0E69939C59FE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="665018" y="471055"/>
-          <a:ext cx="16118549" cy="8106906"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>335062</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>156137</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F5B46DA-6963-48FF-AD7D-EF4DC9C73EC8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17290473" y="471055"/>
-          <a:ext cx="18290553" cy="8164064"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4526,8 +4637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA96CEB-BF09-4F94-B123-E8EF3FF8EDBB}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
@@ -5294,17 +5405,29 @@
       <c r="K24" s="21"/>
       <c r="L24" s="21"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" ht="66" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="3"/>
+      <c r="B25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="6">
+        <v>45519</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="3"/>
       <c r="J25" s="6"/>
@@ -5785,6 +5908,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4562A396-F825-4AEC-9323-BDD1182C505A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6CEF0D-7E1E-433E-A7EC-51D806308945}">
   <dimension ref="B2:AA2"/>
   <sheetViews>
@@ -5809,7 +5948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E509E872-F7F1-45FA-97E7-0B98C3E475EF}">
   <dimension ref="B2:X2"/>
   <sheetViews>
@@ -5834,7 +5973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A69D1A-7D16-4501-BA69-101BF1A06F69}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5850,7 +5989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603E8BC2-EEE4-4E72-8E0B-76E2A8FD5731}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5866,7 +6005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE414601-8EFD-4F09-97D7-5255C08AA5C7}">
   <dimension ref="B2:AA2"/>
   <sheetViews>
@@ -5891,7 +6030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D916AE4-0F6D-4C1F-91CA-7633845F6D1E}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5907,7 +6046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D0ADAB-3952-4EBD-A7A7-122951F66519}">
   <dimension ref="B2:AF2"/>
   <sheetViews>
@@ -5932,7 +6071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC6E52C-3EC5-4AFE-A82A-85482FAD5341}">
   <dimension ref="A1:E28"/>
   <sheetViews>
@@ -6254,6 +6393,31 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05779589-10A8-47A5-AD1B-5444AE3183FD}">
+  <dimension ref="B2:Z2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A35BA5-8CB2-4380-B974-228ACE2110D2}">
   <dimension ref="B2:AA2"/>
   <sheetViews>
@@ -6278,7 +6442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D816AF8F-91BF-42A8-8EE1-878BFA535E67}">
   <dimension ref="B2:AA2"/>
   <sheetViews>
@@ -6301,20 +6465,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4562A396-F825-4AEC-9323-BDD1182C505A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>